--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6277,28 +6277,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>972.9688119734789</v>
+        <v>1154.013513114917</v>
       </c>
       <c r="AB2" t="n">
-        <v>1331.25885289665</v>
+        <v>1578.972200126876</v>
       </c>
       <c r="AC2" t="n">
-        <v>1204.205376409728</v>
+        <v>1428.277309448168</v>
       </c>
       <c r="AD2" t="n">
-        <v>972968.8119734789</v>
+        <v>1154013.513114917</v>
       </c>
       <c r="AE2" t="n">
-        <v>1331258.85289665</v>
+        <v>1578972.200126877</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.79466331538419e-07</v>
+        <v>1.123728872260542e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.99739583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1204205.376409728</v>
+        <v>1428277.309448168</v>
       </c>
     </row>
     <row r="3">
@@ -6383,28 +6383,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>701.8388618281438</v>
+        <v>831.2541274143754</v>
       </c>
       <c r="AB3" t="n">
-        <v>960.2868936985958</v>
+        <v>1137.358569472246</v>
       </c>
       <c r="AC3" t="n">
-        <v>868.6384603351212</v>
+        <v>1028.810663894593</v>
       </c>
       <c r="AD3" t="n">
-        <v>701838.8618281437</v>
+        <v>831254.1274143754</v>
       </c>
       <c r="AE3" t="n">
-        <v>960286.8936985958</v>
+        <v>1137358.569472247</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.004455131014338e-06</v>
+        <v>1.448087218062763e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.26041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>868638.4603351211</v>
+        <v>1028810.663894593</v>
       </c>
     </row>
     <row r="4">
@@ -6489,28 +6489,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>623.9305401477797</v>
+        <v>753.2603753708888</v>
       </c>
       <c r="AB4" t="n">
-        <v>853.6892909029455</v>
+        <v>1030.64407708485</v>
       </c>
       <c r="AC4" t="n">
-        <v>772.2143831396127</v>
+        <v>932.2808528859186</v>
       </c>
       <c r="AD4" t="n">
-        <v>623930.5401477796</v>
+        <v>753260.3753708889</v>
       </c>
       <c r="AE4" t="n">
-        <v>853689.2909029454</v>
+        <v>1030644.07708485</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.093876449698044e-06</v>
+        <v>1.577002751081573e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.78645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>772214.3831396126</v>
+        <v>932280.8528859187</v>
       </c>
     </row>
     <row r="5">
@@ -6595,28 +6595,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>590.9518589622064</v>
+        <v>711.7336672444036</v>
       </c>
       <c r="AB5" t="n">
-        <v>808.5664043881131</v>
+        <v>973.8254029971291</v>
       </c>
       <c r="AC5" t="n">
-        <v>731.397961583387</v>
+        <v>880.8848733076195</v>
       </c>
       <c r="AD5" t="n">
-        <v>590951.8589622064</v>
+        <v>711733.6672444036</v>
       </c>
       <c r="AE5" t="n">
-        <v>808566.4043881132</v>
+        <v>973825.4029971291</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.141586492869407e-06</v>
+        <v>1.645784622522566e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.62760416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>731397.961583387</v>
+        <v>880884.8733076195</v>
       </c>
     </row>
     <row r="6">
@@ -6701,28 +6701,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>577.4985990463184</v>
+        <v>689.6471290415833</v>
       </c>
       <c r="AB6" t="n">
-        <v>790.159060655256</v>
+        <v>943.6056270387336</v>
       </c>
       <c r="AC6" t="n">
-        <v>714.7473889015245</v>
+        <v>853.5492303529714</v>
       </c>
       <c r="AD6" t="n">
-        <v>577498.5990463184</v>
+        <v>689647.1290415833</v>
       </c>
       <c r="AE6" t="n">
-        <v>790159.060655256</v>
+        <v>943605.6270387336</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.16868598412281e-06</v>
+        <v>1.684852994706027e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.00260416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>714747.3889015245</v>
+        <v>853549.2303529715</v>
       </c>
     </row>
     <row r="7">
@@ -6807,28 +6807,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>557.8914045897834</v>
+        <v>670.1251859310688</v>
       </c>
       <c r="AB7" t="n">
-        <v>763.3316321914548</v>
+        <v>916.8948432275815</v>
       </c>
       <c r="AC7" t="n">
-        <v>690.4803325577761</v>
+        <v>829.3876862599351</v>
       </c>
       <c r="AD7" t="n">
-        <v>557891.4045897834</v>
+        <v>670125.1859310688</v>
       </c>
       <c r="AE7" t="n">
-        <v>763331.6321914548</v>
+        <v>916894.8432275816</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.191257222746444e-06</v>
+        <v>1.71739314621456e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.5078125</v>
       </c>
       <c r="AH7" t="n">
-        <v>690480.3325577761</v>
+        <v>829387.6862599351</v>
       </c>
     </row>
     <row r="8">
@@ -6913,28 +6913,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>551.4635939899673</v>
+        <v>663.5267831306604</v>
       </c>
       <c r="AB8" t="n">
-        <v>754.5368181537964</v>
+        <v>907.8666174150761</v>
       </c>
       <c r="AC8" t="n">
-        <v>682.5248832282728</v>
+        <v>821.2211016477809</v>
       </c>
       <c r="AD8" t="n">
-        <v>551463.5939899673</v>
+        <v>663526.7831306604</v>
       </c>
       <c r="AE8" t="n">
-        <v>754536.8181537964</v>
+        <v>907866.6174150761</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.204491858009733e-06</v>
+        <v>1.736473048908808e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.234375</v>
       </c>
       <c r="AH8" t="n">
-        <v>682524.8832282728</v>
+        <v>821221.1016477809</v>
       </c>
     </row>
     <row r="9">
@@ -7019,28 +7019,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>536.3355662209013</v>
+        <v>648.4840067076151</v>
       </c>
       <c r="AB9" t="n">
-        <v>733.8379831586781</v>
+        <v>887.2844270726072</v>
       </c>
       <c r="AC9" t="n">
-        <v>663.8015159940911</v>
+        <v>802.6032466643115</v>
       </c>
       <c r="AD9" t="n">
-        <v>536335.5662209013</v>
+        <v>648484.0067076151</v>
       </c>
       <c r="AE9" t="n">
-        <v>733837.983158678</v>
+        <v>887284.4270726072</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.216209295226967e-06</v>
+        <v>1.753365661170735e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.98697916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>663801.5159940912</v>
+        <v>802603.2466643115</v>
       </c>
     </row>
     <row r="10">
@@ -7125,28 +7125,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>530.3076302025484</v>
+        <v>642.4560706892621</v>
       </c>
       <c r="AB10" t="n">
-        <v>725.5902951645991</v>
+        <v>879.0367390785282</v>
       </c>
       <c r="AC10" t="n">
-        <v>656.3409757664641</v>
+        <v>795.1427064366845</v>
       </c>
       <c r="AD10" t="n">
-        <v>530307.6302025483</v>
+        <v>642456.0706892621</v>
       </c>
       <c r="AE10" t="n">
-        <v>725590.2951645991</v>
+        <v>879036.7390785281</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.227576609818187e-06</v>
+        <v>1.769753514102127e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.75260416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>656340.9757664641</v>
+        <v>795142.7064366846</v>
       </c>
     </row>
     <row r="11">
@@ -7231,28 +7231,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>528.0485571389239</v>
+        <v>640.1969976256376</v>
       </c>
       <c r="AB11" t="n">
-        <v>722.4993317356783</v>
+        <v>875.9457756496074</v>
       </c>
       <c r="AC11" t="n">
-        <v>653.5450095490053</v>
+        <v>792.3467402192257</v>
       </c>
       <c r="AD11" t="n">
-        <v>528048.5571389239</v>
+        <v>640196.9976256376</v>
       </c>
       <c r="AE11" t="n">
-        <v>722499.3317356784</v>
+        <v>875945.7756496074</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.230821079485907e-06</v>
+        <v>1.774430950565091e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>24.6875</v>
       </c>
       <c r="AH11" t="n">
-        <v>653545.0095490053</v>
+        <v>792346.7402192256</v>
       </c>
     </row>
     <row r="12">
@@ -7337,28 +7337,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>523.1871361158024</v>
+        <v>635.3355766025162</v>
       </c>
       <c r="AB12" t="n">
-        <v>715.8477210210846</v>
+        <v>869.2941649350138</v>
       </c>
       <c r="AC12" t="n">
-        <v>647.5282192254182</v>
+        <v>786.3299498956385</v>
       </c>
       <c r="AD12" t="n">
-        <v>523187.1361158025</v>
+        <v>635335.5766025162</v>
       </c>
       <c r="AE12" t="n">
-        <v>715847.7210210846</v>
+        <v>869294.1649350137</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.239690852678235e-06</v>
+        <v>1.787218186938661e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>25</v>
+        <v>24.51822916666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>647528.2192254182</v>
+        <v>786329.9498956385</v>
       </c>
     </row>
     <row r="13">
@@ -7443,28 +7443,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>520.3576761925259</v>
+        <v>632.3355244786475</v>
       </c>
       <c r="AB13" t="n">
-        <v>711.9763291270956</v>
+        <v>865.1893612661778</v>
       </c>
       <c r="AC13" t="n">
-        <v>644.0263075402588</v>
+        <v>782.6169029278282</v>
       </c>
       <c r="AD13" t="n">
-        <v>520357.6761925259</v>
+        <v>632335.5244786475</v>
       </c>
       <c r="AE13" t="n">
-        <v>711976.3291270956</v>
+        <v>865189.3612661778</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.243285444971968e-06</v>
+        <v>1.792400382732161e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>24.44010416666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>644026.3075402589</v>
+        <v>782616.9029278281</v>
       </c>
     </row>
     <row r="14">
@@ -7549,28 +7549,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>517.4459648443669</v>
+        <v>620.9611270441483</v>
       </c>
       <c r="AB14" t="n">
-        <v>707.9923972049057</v>
+        <v>849.6264088932967</v>
       </c>
       <c r="AC14" t="n">
-        <v>640.4225964892393</v>
+        <v>768.5392568866739</v>
       </c>
       <c r="AD14" t="n">
-        <v>517445.9648443669</v>
+        <v>620961.1270441483</v>
       </c>
       <c r="AE14" t="n">
-        <v>707992.3972049057</v>
+        <v>849626.4088932967</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.246716646706895e-06</v>
+        <v>1.79734702417141e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>24.375</v>
       </c>
       <c r="AH14" t="n">
-        <v>640422.5964892393</v>
+        <v>768539.2568866739</v>
       </c>
     </row>
     <row r="15">
@@ -7655,28 +7655,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>514.7868408952335</v>
+        <v>618.3020030950148</v>
       </c>
       <c r="AB15" t="n">
-        <v>704.3540665054322</v>
+        <v>845.9880781938231</v>
       </c>
       <c r="AC15" t="n">
-        <v>637.1315029652942</v>
+        <v>765.2481633627289</v>
       </c>
       <c r="AD15" t="n">
-        <v>514786.8408952334</v>
+        <v>618302.0030950148</v>
       </c>
       <c r="AE15" t="n">
-        <v>704354.0665054322</v>
+        <v>845988.0781938231</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.250264555983826e-06</v>
+        <v>1.802461918720838e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>24.30989583333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>637131.5029652942</v>
+        <v>765248.1633627289</v>
       </c>
     </row>
     <row r="16">
@@ -7761,28 +7761,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>511.3823970898971</v>
+        <v>614.8975592896785</v>
       </c>
       <c r="AB16" t="n">
-        <v>699.6959562975105</v>
+        <v>841.3299679859012</v>
       </c>
       <c r="AC16" t="n">
-        <v>632.9179562579177</v>
+        <v>761.0346166553525</v>
       </c>
       <c r="AD16" t="n">
-        <v>511382.3970898971</v>
+        <v>614897.5592896785</v>
       </c>
       <c r="AE16" t="n">
-        <v>699695.9562975105</v>
+        <v>841329.9679859013</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.255142931239606e-06</v>
+        <v>1.809494898726302e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>25</v>
+        <v>24.21875</v>
       </c>
       <c r="AH16" t="n">
-        <v>632917.9562579177</v>
+        <v>761034.6166553524</v>
       </c>
     </row>
     <row r="17">
@@ -7867,28 +7867,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>507.8902784698034</v>
+        <v>611.4054406695848</v>
       </c>
       <c r="AB17" t="n">
-        <v>694.9178855400979</v>
+        <v>836.5518972284888</v>
       </c>
       <c r="AC17" t="n">
-        <v>628.5958978675283</v>
+        <v>756.7125582649628</v>
       </c>
       <c r="AD17" t="n">
-        <v>507890.2784698034</v>
+        <v>611405.4406695848</v>
       </c>
       <c r="AE17" t="n">
-        <v>694917.885540098</v>
+        <v>836551.8972284888</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.258690840516537e-06</v>
+        <v>1.81460979327573e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>25</v>
+        <v>24.140625</v>
       </c>
       <c r="AH17" t="n">
-        <v>628595.8978675283</v>
+        <v>756712.5582649629</v>
       </c>
     </row>
     <row r="18">
@@ -7973,28 +7973,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>506.9736281977579</v>
+        <v>610.4887903975391</v>
       </c>
       <c r="AB18" t="n">
-        <v>693.6636841981292</v>
+        <v>835.29769588652</v>
       </c>
       <c r="AC18" t="n">
-        <v>627.4613957413543</v>
+        <v>755.5780561387891</v>
       </c>
       <c r="AD18" t="n">
-        <v>506973.6281977579</v>
+        <v>610488.7903975392</v>
       </c>
       <c r="AE18" t="n">
-        <v>693663.6841981292</v>
+        <v>835297.6958865201</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.258970938617348e-06</v>
+        <v>1.815013600740159e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>25</v>
+        <v>24.140625</v>
       </c>
       <c r="AH18" t="n">
-        <v>627461.3957413543</v>
+        <v>755578.056138789</v>
       </c>
     </row>
     <row r="19">
@@ -8079,28 +8079,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>503.8063208336714</v>
+        <v>607.3214830334528</v>
       </c>
       <c r="AB19" t="n">
-        <v>689.3300345308471</v>
+        <v>830.9640462192378</v>
       </c>
       <c r="AC19" t="n">
-        <v>623.541343516002</v>
+        <v>751.6580039134368</v>
       </c>
       <c r="AD19" t="n">
-        <v>503806.3208336714</v>
+        <v>607321.4830334528</v>
       </c>
       <c r="AE19" t="n">
-        <v>689330.0345308471</v>
+        <v>830964.0462192378</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.262518847894279e-06</v>
+        <v>1.820128495289586e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>25</v>
+        <v>24.07552083333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>623541.3435160021</v>
+        <v>751658.0039134368</v>
       </c>
     </row>
     <row r="20">
@@ -8185,28 +8185,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>502.7272954577994</v>
+        <v>606.2424576575808</v>
       </c>
       <c r="AB20" t="n">
-        <v>687.853664408339</v>
+        <v>829.4876760967298</v>
       </c>
       <c r="AC20" t="n">
-        <v>622.2058760858878</v>
+        <v>750.3225364833224</v>
       </c>
       <c r="AD20" t="n">
-        <v>502727.2954577993</v>
+        <v>606242.4576575807</v>
       </c>
       <c r="AE20" t="n">
-        <v>687853.664408339</v>
+        <v>829487.6760967298</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.262798945995089e-06</v>
+        <v>1.820532302754015e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>25</v>
+        <v>24.0625</v>
       </c>
       <c r="AH20" t="n">
-        <v>622205.8760858878</v>
+        <v>750322.5364833224</v>
       </c>
     </row>
     <row r="21">
@@ -8291,28 +8291,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>490.3780538926875</v>
+        <v>602.4411535248298</v>
       </c>
       <c r="AB21" t="n">
-        <v>670.9568872888661</v>
+        <v>824.2865640805974</v>
       </c>
       <c r="AC21" t="n">
-        <v>606.9217036599215</v>
+        <v>745.617811298203</v>
       </c>
       <c r="AD21" t="n">
-        <v>490378.0538926875</v>
+        <v>602441.1535248298</v>
       </c>
       <c r="AE21" t="n">
-        <v>670956.8872888661</v>
+        <v>824286.5640805974</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.266930392982042e-06</v>
+        <v>1.826488462854336e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>24</v>
+        <v>23.984375</v>
       </c>
       <c r="AH21" t="n">
-        <v>606921.7036599215</v>
+        <v>745617.8112982031</v>
       </c>
     </row>
     <row r="22">
@@ -8397,28 +8397,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>488.7222022673528</v>
+        <v>600.7853018994948</v>
       </c>
       <c r="AB22" t="n">
-        <v>668.691278044065</v>
+        <v>822.0209548357964</v>
       </c>
       <c r="AC22" t="n">
-        <v>604.8723209816418</v>
+        <v>743.5684286199232</v>
       </c>
       <c r="AD22" t="n">
-        <v>488722.2022673528</v>
+        <v>600785.3018994948</v>
       </c>
       <c r="AE22" t="n">
-        <v>668691.278044065</v>
+        <v>822020.9548357964</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.267280515608055e-06</v>
+        <v>1.826993222184872e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>24</v>
+        <v>23.984375</v>
       </c>
       <c r="AH22" t="n">
-        <v>604872.3209816418</v>
+        <v>743568.4286199232</v>
       </c>
     </row>
     <row r="23">
@@ -8503,28 +8503,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>485.8415300377798</v>
+        <v>597.904629669922</v>
       </c>
       <c r="AB23" t="n">
-        <v>664.7498152132737</v>
+        <v>818.0794920050051</v>
       </c>
       <c r="AC23" t="n">
-        <v>601.3070258315433</v>
+        <v>740.0031334698249</v>
       </c>
       <c r="AD23" t="n">
-        <v>485841.5300377798</v>
+        <v>597904.6296699219</v>
       </c>
       <c r="AE23" t="n">
-        <v>664749.8152132736</v>
+        <v>818079.4920050051</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.266813685440038e-06</v>
+        <v>1.826320209744158e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>24</v>
+        <v>23.99739583333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>601307.0258315434</v>
+        <v>740003.1334698249</v>
       </c>
     </row>
     <row r="24">
@@ -8609,28 +8609,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>484.2234792398364</v>
+        <v>596.2865788719787</v>
       </c>
       <c r="AB24" t="n">
-        <v>662.5359267281643</v>
+        <v>815.8656035198958</v>
       </c>
       <c r="AC24" t="n">
-        <v>599.3044277562409</v>
+        <v>738.0005353945223</v>
       </c>
       <c r="AD24" t="n">
-        <v>484223.4792398364</v>
+        <v>596286.5788719787</v>
       </c>
       <c r="AE24" t="n">
-        <v>662535.9267281643</v>
+        <v>815865.6035198958</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.270198204158163e-06</v>
+        <v>1.831199549939336e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>24</v>
+        <v>23.93229166666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>599304.4277562409</v>
+        <v>738000.5353945224</v>
       </c>
     </row>
     <row r="25">
@@ -8715,28 +8715,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>483.8932571210728</v>
+        <v>595.9563567532151</v>
       </c>
       <c r="AB25" t="n">
-        <v>662.0841022569005</v>
+        <v>815.4137790486319</v>
       </c>
       <c r="AC25" t="n">
-        <v>598.8957247783748</v>
+        <v>737.5918324166562</v>
       </c>
       <c r="AD25" t="n">
-        <v>483893.2571210728</v>
+        <v>595956.3567532151</v>
       </c>
       <c r="AE25" t="n">
-        <v>662084.1022569004</v>
+        <v>815413.7790486319</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.270548326784176e-06</v>
+        <v>1.831704309269871e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>24</v>
+        <v>23.91927083333333</v>
       </c>
       <c r="AH25" t="n">
-        <v>598895.7247783748</v>
+        <v>737591.8324166562</v>
       </c>
     </row>
     <row r="26">
@@ -8821,28 +8821,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>484.7526873451354</v>
+        <v>596.8157869772776</v>
       </c>
       <c r="AB26" t="n">
-        <v>663.2600126048485</v>
+        <v>816.5896893965797</v>
       </c>
       <c r="AC26" t="n">
-        <v>599.9594078931152</v>
+        <v>738.6555155313966</v>
       </c>
       <c r="AD26" t="n">
-        <v>484752.6873451354</v>
+        <v>596815.7869772776</v>
       </c>
       <c r="AE26" t="n">
-        <v>663260.0126048485</v>
+        <v>816589.6893965797</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.270781741868184e-06</v>
+        <v>1.832040815490229e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>24</v>
+        <v>23.91927083333333</v>
       </c>
       <c r="AH26" t="n">
-        <v>599959.4078931152</v>
+        <v>738655.5155313966</v>
       </c>
     </row>
   </sheetData>
@@ -9118,28 +9118,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>785.0746430762736</v>
+        <v>936.5029262117565</v>
       </c>
       <c r="AB2" t="n">
-        <v>1074.173761705792</v>
+        <v>1281.364619236122</v>
       </c>
       <c r="AC2" t="n">
-        <v>971.6561255009335</v>
+        <v>1159.072978382764</v>
       </c>
       <c r="AD2" t="n">
-        <v>785074.6430762736</v>
+        <v>936502.9262117565</v>
       </c>
       <c r="AE2" t="n">
-        <v>1074173.761705792</v>
+        <v>1281364.619236122</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.007596883454718e-07</v>
+        <v>1.318678298101513e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.90885416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>971656.1255009335</v>
+        <v>1159072.978382764</v>
       </c>
     </row>
     <row r="3">
@@ -9224,28 +9224,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>600.4808208821839</v>
+        <v>726.4862411520655</v>
       </c>
       <c r="AB3" t="n">
-        <v>821.6043504751569</v>
+        <v>994.0105254552191</v>
       </c>
       <c r="AC3" t="n">
-        <v>743.1915843947555</v>
+        <v>899.1435560083067</v>
       </c>
       <c r="AD3" t="n">
-        <v>600480.820882184</v>
+        <v>726486.2411520656</v>
       </c>
       <c r="AE3" t="n">
-        <v>821604.3504751569</v>
+        <v>994010.5254552191</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.107236100929702e-06</v>
+        <v>1.620951998698394e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.3984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>743191.5843947555</v>
+        <v>899143.5560083068</v>
       </c>
     </row>
     <row r="4">
@@ -9330,28 +9330,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>548.2799187755451</v>
+        <v>666.038507691016</v>
       </c>
       <c r="AB4" t="n">
-        <v>750.1807732715863</v>
+        <v>911.3032697680216</v>
       </c>
       <c r="AC4" t="n">
-        <v>678.5845731558735</v>
+        <v>824.329764723533</v>
       </c>
       <c r="AD4" t="n">
-        <v>548279.9187755451</v>
+        <v>666038.507691016</v>
       </c>
       <c r="AE4" t="n">
-        <v>750180.7732715863</v>
+        <v>911303.2697680215</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.183394047987434e-06</v>
+        <v>1.732444368208693e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.5625</v>
       </c>
       <c r="AH4" t="n">
-        <v>678584.5731558735</v>
+        <v>824329.7647235329</v>
       </c>
     </row>
     <row r="5">
@@ -9436,28 +9436,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>521.6647786518809</v>
+        <v>631.0912848669202</v>
       </c>
       <c r="AB5" t="n">
-        <v>713.7647643772759</v>
+        <v>863.486937737435</v>
       </c>
       <c r="AC5" t="n">
-        <v>645.6440570402465</v>
+        <v>781.0769563113021</v>
       </c>
       <c r="AD5" t="n">
-        <v>521664.7786518808</v>
+        <v>631091.2848669202</v>
       </c>
       <c r="AE5" t="n">
-        <v>713764.7643772759</v>
+        <v>863486.937737435</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.225022551705737e-06</v>
+        <v>1.79338693163157e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.6640625</v>
       </c>
       <c r="AH5" t="n">
-        <v>645644.0570402464</v>
+        <v>781076.956311302</v>
       </c>
     </row>
     <row r="6">
@@ -9542,28 +9542,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>509.2504928590797</v>
+        <v>610.2596650276671</v>
       </c>
       <c r="AB6" t="n">
-        <v>696.7789908759295</v>
+        <v>834.9841964471631</v>
       </c>
       <c r="AC6" t="n">
-        <v>630.2793819221856</v>
+        <v>755.2944766459252</v>
       </c>
       <c r="AD6" t="n">
-        <v>509250.4928590797</v>
+        <v>610259.6650276671</v>
       </c>
       <c r="AE6" t="n">
-        <v>696778.9908759295</v>
+        <v>834984.1964471631</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.253756843715471e-06</v>
+        <v>1.835452854179843e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.078125</v>
       </c>
       <c r="AH6" t="n">
-        <v>630279.3819221857</v>
+        <v>755294.4766459252</v>
       </c>
     </row>
     <row r="7">
@@ -9648,28 +9648,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>493.3642176085904</v>
+        <v>602.7053829690583</v>
       </c>
       <c r="AB7" t="n">
-        <v>675.0426882252098</v>
+        <v>824.6480944631712</v>
       </c>
       <c r="AC7" t="n">
-        <v>610.6175614893583</v>
+        <v>745.9448377284752</v>
       </c>
       <c r="AD7" t="n">
-        <v>493364.2176085904</v>
+        <v>602705.3829690582</v>
       </c>
       <c r="AE7" t="n">
-        <v>675042.6882252097</v>
+        <v>824648.0944631712</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.269814242191499e-06</v>
+        <v>1.858960281486232e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.765625</v>
       </c>
       <c r="AH7" t="n">
-        <v>610617.5614893583</v>
+        <v>745944.8377284752</v>
       </c>
     </row>
     <row r="8">
@@ -9754,28 +9754,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>487.6432485126805</v>
+        <v>596.9844138731482</v>
       </c>
       <c r="AB8" t="n">
-        <v>667.2150059168422</v>
+        <v>816.8204121548036</v>
       </c>
       <c r="AC8" t="n">
-        <v>603.5369421942802</v>
+        <v>738.864218433397</v>
       </c>
       <c r="AD8" t="n">
-        <v>487643.2485126805</v>
+        <v>596984.4138731483</v>
       </c>
       <c r="AE8" t="n">
-        <v>667215.0059168421</v>
+        <v>816820.4121548036</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.280462832759812e-06</v>
+        <v>1.874549417489415e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.55729166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>603536.9421942802</v>
+        <v>738864.218433397</v>
       </c>
     </row>
     <row r="9">
@@ -9860,28 +9860,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>482.2522818249197</v>
+        <v>583.1761131389355</v>
       </c>
       <c r="AB9" t="n">
-        <v>659.8388474619828</v>
+        <v>797.927285911019</v>
       </c>
       <c r="AC9" t="n">
-        <v>596.8647539498494</v>
+        <v>721.7742256416499</v>
       </c>
       <c r="AD9" t="n">
-        <v>482252.2818249197</v>
+        <v>583176.1131389355</v>
       </c>
       <c r="AE9" t="n">
-        <v>659838.8474619829</v>
+        <v>797927.285911019</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.291690938461095e-06</v>
+        <v>1.890986941846514e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.3359375</v>
       </c>
       <c r="AH9" t="n">
-        <v>596864.7539498494</v>
+        <v>721774.2256416499</v>
       </c>
     </row>
     <row r="10">
@@ -9966,28 +9966,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>478.6143408606729</v>
+        <v>579.5381721746886</v>
       </c>
       <c r="AB10" t="n">
-        <v>654.8612561400723</v>
+        <v>792.9496945891085</v>
       </c>
       <c r="AC10" t="n">
-        <v>592.3622169576086</v>
+        <v>717.2716886494093</v>
       </c>
       <c r="AD10" t="n">
-        <v>478614.3408606729</v>
+        <v>579538.1721746887</v>
       </c>
       <c r="AE10" t="n">
-        <v>654861.2561400724</v>
+        <v>792949.6945891085</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.296785842338451e-06</v>
+        <v>1.898445689458014e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.24479166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>592362.2169576086</v>
+        <v>717271.6886494092</v>
       </c>
     </row>
     <row r="11">
@@ -10072,28 +10072,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>473.54836745424</v>
+        <v>574.4721987682558</v>
       </c>
       <c r="AB11" t="n">
-        <v>647.9297678304175</v>
+        <v>786.0182062794536</v>
       </c>
       <c r="AC11" t="n">
-        <v>586.0922601638222</v>
+        <v>711.001731855623</v>
       </c>
       <c r="AD11" t="n">
-        <v>473548.3674542399</v>
+        <v>574472.1987682558</v>
       </c>
       <c r="AE11" t="n">
-        <v>647929.7678304175</v>
+        <v>786018.2062794536</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.305840766291098e-06</v>
+        <v>1.911701757487933e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>24.07552083333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>586092.2601638222</v>
+        <v>711001.731855623</v>
       </c>
     </row>
     <row r="12">
@@ -10178,28 +10178,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>470.1990259791156</v>
+        <v>571.1228572931313</v>
       </c>
       <c r="AB12" t="n">
-        <v>643.3470510616352</v>
+        <v>781.435489510671</v>
       </c>
       <c r="AC12" t="n">
-        <v>581.946911451569</v>
+        <v>706.8563831433697</v>
       </c>
       <c r="AD12" t="n">
-        <v>470199.0259791156</v>
+        <v>571122.8572931313</v>
       </c>
       <c r="AE12" t="n">
-        <v>643347.0510616351</v>
+        <v>781435.489510671</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.309728346974768e-06</v>
+        <v>1.917393029362111e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>25</v>
+        <v>24.01041666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>581946.9114515691</v>
+        <v>706856.3831433697</v>
       </c>
     </row>
     <row r="13">
@@ -10284,28 +10284,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>458.5507185778105</v>
+        <v>567.8065430837065</v>
       </c>
       <c r="AB13" t="n">
-        <v>627.409322988115</v>
+        <v>776.8979621038789</v>
       </c>
       <c r="AC13" t="n">
-        <v>567.530257776644</v>
+        <v>702.7519109838219</v>
       </c>
       <c r="AD13" t="n">
-        <v>458550.7185778104</v>
+        <v>567806.5430837065</v>
       </c>
       <c r="AE13" t="n">
-        <v>627409.322988115</v>
+        <v>776897.9621038788</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.312456897392499e-06</v>
+        <v>1.92138752452846e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>23.95833333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>567530.257776644</v>
+        <v>702751.9109838218</v>
       </c>
     </row>
     <row r="14">
@@ -10390,28 +10390,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>454.7049858417624</v>
+        <v>563.9608103476585</v>
       </c>
       <c r="AB14" t="n">
-        <v>622.1474217968999</v>
+        <v>771.6360609126635</v>
       </c>
       <c r="AC14" t="n">
-        <v>562.7705450499936</v>
+        <v>697.9921982571717</v>
       </c>
       <c r="AD14" t="n">
-        <v>454704.9858417624</v>
+        <v>563960.8103476585</v>
       </c>
       <c r="AE14" t="n">
-        <v>622147.4217969</v>
+        <v>771636.0609126636</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.317310336631118e-06</v>
+        <v>1.928492776992495e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>24</v>
+        <v>23.8671875</v>
       </c>
       <c r="AH14" t="n">
-        <v>562770.5450499937</v>
+        <v>697992.1982571717</v>
       </c>
     </row>
     <row r="15">
@@ -10496,28 +10496,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>451.5443588912739</v>
+        <v>560.8001833971699</v>
       </c>
       <c r="AB15" t="n">
-        <v>617.8229125662214</v>
+        <v>767.3115516819852</v>
       </c>
       <c r="AC15" t="n">
-        <v>558.8587609108043</v>
+        <v>694.0804141179822</v>
       </c>
       <c r="AD15" t="n">
-        <v>451544.3588912738</v>
+        <v>560800.1833971699</v>
       </c>
       <c r="AE15" t="n">
-        <v>617822.9125662213</v>
+        <v>767311.5516819851</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.320932306212177e-06</v>
+        <v>1.933795204204463e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>24</v>
+        <v>23.80208333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>558858.7609108044</v>
+        <v>694080.4141179821</v>
       </c>
     </row>
     <row r="16">
@@ -10602,28 +10602,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>447.6572867806296</v>
+        <v>548.666369440666</v>
       </c>
       <c r="AB16" t="n">
-        <v>612.5044490189194</v>
+        <v>750.7095321206048</v>
       </c>
       <c r="AC16" t="n">
-        <v>554.0478840599465</v>
+        <v>679.0628680024591</v>
       </c>
       <c r="AD16" t="n">
-        <v>447657.2867806297</v>
+        <v>548666.3694406661</v>
       </c>
       <c r="AE16" t="n">
-        <v>612504.4490189195</v>
+        <v>750709.5321206048</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.323902321268645e-06</v>
+        <v>1.938143194518276e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>24</v>
+        <v>23.75</v>
       </c>
       <c r="AH16" t="n">
-        <v>554047.8840599464</v>
+        <v>679062.8680024592</v>
       </c>
     </row>
     <row r="17">
@@ -10708,28 +10708,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>445.8110673144204</v>
+        <v>546.8201499744567</v>
       </c>
       <c r="AB17" t="n">
-        <v>609.9783700957973</v>
+        <v>748.1834531974828</v>
       </c>
       <c r="AC17" t="n">
-        <v>551.7628905638732</v>
+        <v>676.777874506386</v>
       </c>
       <c r="AD17" t="n">
-        <v>445811.0673144204</v>
+        <v>546820.1499744568</v>
       </c>
       <c r="AE17" t="n">
-        <v>609978.3700957973</v>
+        <v>748183.4531974827</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.323685003093782e-06</v>
+        <v>1.937825048885558e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>24</v>
+        <v>23.75</v>
       </c>
       <c r="AH17" t="n">
-        <v>551762.8905638731</v>
+        <v>676777.874506386</v>
       </c>
     </row>
     <row r="18">
@@ -10814,28 +10814,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>442.8627593244674</v>
+        <v>543.8718419845038</v>
       </c>
       <c r="AB18" t="n">
-        <v>605.9443650337751</v>
+        <v>744.1494481354605</v>
       </c>
       <c r="AC18" t="n">
-        <v>548.1138852832086</v>
+        <v>673.1288692257214</v>
       </c>
       <c r="AD18" t="n">
-        <v>442862.7593244674</v>
+        <v>543871.8419845038</v>
       </c>
       <c r="AE18" t="n">
-        <v>605944.3650337751</v>
+        <v>744149.4481354605</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.328055513054926e-06</v>
+        <v>1.944223311054665e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>24</v>
+        <v>23.671875</v>
       </c>
       <c r="AH18" t="n">
-        <v>548113.8852832086</v>
+        <v>673128.8692257213</v>
       </c>
     </row>
   </sheetData>
@@ -11111,28 +11111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>452.0807684817481</v>
+        <v>560.6522185605137</v>
       </c>
       <c r="AB2" t="n">
-        <v>618.5568518326291</v>
+        <v>767.1090996647242</v>
       </c>
       <c r="AC2" t="n">
-        <v>559.5226540437163</v>
+        <v>693.8972838371056</v>
       </c>
       <c r="AD2" t="n">
-        <v>452080.7684817481</v>
+        <v>560652.2185605137</v>
       </c>
       <c r="AE2" t="n">
-        <v>618556.8518326292</v>
+        <v>767109.0996647242</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.276953962775258e-06</v>
+        <v>1.975605398563367e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.47395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>559522.6540437164</v>
+        <v>693897.2838371056</v>
       </c>
     </row>
     <row r="3">
@@ -11217,28 +11217,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>388.2319376807495</v>
+        <v>489.1213503712959</v>
       </c>
       <c r="AB3" t="n">
-        <v>531.1960647190886</v>
+        <v>669.2374100890515</v>
       </c>
       <c r="AC3" t="n">
-        <v>480.4994578406574</v>
+        <v>605.3663309507559</v>
       </c>
       <c r="AD3" t="n">
-        <v>388231.9376807495</v>
+        <v>489121.3503712959</v>
       </c>
       <c r="AE3" t="n">
-        <v>531196.0647190886</v>
+        <v>669237.4100890516</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.413667494459719e-06</v>
+        <v>2.187118107028974e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.81770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>480499.4578406574</v>
+        <v>605366.330950756</v>
       </c>
     </row>
     <row r="4">
@@ -11323,28 +11323,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>365.0075490930329</v>
+        <v>465.8116209290077</v>
       </c>
       <c r="AB4" t="n">
-        <v>499.4194316656622</v>
+        <v>637.3440099134273</v>
       </c>
       <c r="AC4" t="n">
-        <v>451.7555420470653</v>
+        <v>576.516792125225</v>
       </c>
       <c r="AD4" t="n">
-        <v>365007.549093033</v>
+        <v>465811.6209290078</v>
       </c>
       <c r="AE4" t="n">
-        <v>499419.4316656622</v>
+        <v>637344.0099134273</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.463379056532606e-06</v>
+        <v>2.26402802959875e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.97135416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>451755.5420470653</v>
+        <v>576516.7921252251</v>
       </c>
     </row>
     <row r="5">
@@ -11429,28 +11429,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>355.1631231825815</v>
+        <v>448.3705879934597</v>
       </c>
       <c r="AB5" t="n">
-        <v>485.9498538295632</v>
+        <v>613.480419206942</v>
       </c>
       <c r="AC5" t="n">
-        <v>439.5714818149723</v>
+        <v>554.9307090230067</v>
       </c>
       <c r="AD5" t="n">
-        <v>355163.1231825815</v>
+        <v>448370.5879934597</v>
       </c>
       <c r="AE5" t="n">
-        <v>485949.8538295631</v>
+        <v>613480.419206942</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.486766393052534e-06</v>
+        <v>2.300211125962201e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.59375</v>
       </c>
       <c r="AH5" t="n">
-        <v>439571.4818149723</v>
+        <v>554930.7090230067</v>
       </c>
     </row>
     <row r="6">
@@ -11535,28 +11535,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>349.0888110351125</v>
+        <v>442.1256836453985</v>
       </c>
       <c r="AB6" t="n">
-        <v>477.6387119696571</v>
+        <v>604.935865572189</v>
       </c>
       <c r="AC6" t="n">
-        <v>432.0535436694149</v>
+        <v>547.2016355947984</v>
       </c>
       <c r="AD6" t="n">
-        <v>349088.8110351125</v>
+        <v>442125.6836453985</v>
       </c>
       <c r="AE6" t="n">
-        <v>477638.7119696571</v>
+        <v>604935.865572189</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.498756444609409e-06</v>
+        <v>2.318761215687702e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.41145833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>432053.5436694149</v>
+        <v>547201.6355947984</v>
       </c>
     </row>
   </sheetData>
@@ -11832,28 +11832,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>554.2475585810591</v>
+        <v>682.420325059829</v>
       </c>
       <c r="AB2" t="n">
-        <v>758.3459613271777</v>
+        <v>933.7175950068075</v>
       </c>
       <c r="AC2" t="n">
-        <v>685.9704871233525</v>
+        <v>844.6048982202323</v>
       </c>
       <c r="AD2" t="n">
-        <v>554247.5585810591</v>
+        <v>682420.325059829</v>
       </c>
       <c r="AE2" t="n">
-        <v>758345.9613271777</v>
+        <v>933717.5950068075</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.12784676071073e-06</v>
+        <v>1.704508006786074e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.75260416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>685970.4871233526</v>
+        <v>844604.8982202322</v>
       </c>
     </row>
     <row r="3">
@@ -11938,28 +11938,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>457.7640979876049</v>
+        <v>569.8939334428858</v>
       </c>
       <c r="AB3" t="n">
-        <v>626.3330339933447</v>
+        <v>779.7540216824713</v>
       </c>
       <c r="AC3" t="n">
-        <v>566.5566882929534</v>
+        <v>705.3353922447383</v>
       </c>
       <c r="AD3" t="n">
-        <v>457764.0979876049</v>
+        <v>569893.9334428858</v>
       </c>
       <c r="AE3" t="n">
-        <v>626333.0339933446</v>
+        <v>779754.0216824713</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.293125093008232e-06</v>
+        <v>1.954292153501017e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.95052083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>566556.6882929534</v>
+        <v>705335.3922447383</v>
       </c>
     </row>
     <row r="4">
@@ -12044,28 +12044,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>429.3435465691259</v>
+        <v>533.5372573672338</v>
       </c>
       <c r="AB4" t="n">
-        <v>587.4467817163437</v>
+        <v>730.0092135324164</v>
       </c>
       <c r="AC4" t="n">
-        <v>531.3816853560714</v>
+        <v>660.338158767248</v>
       </c>
       <c r="AD4" t="n">
-        <v>429343.5465691258</v>
+        <v>533537.2573672337</v>
       </c>
       <c r="AE4" t="n">
-        <v>587446.7817163437</v>
+        <v>730009.2135324164</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.353184125174979e-06</v>
+        <v>2.045059006564931e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.8046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>531381.6853560715</v>
+        <v>660338.158767248</v>
       </c>
     </row>
     <row r="5">
@@ -12150,28 +12150,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>417.7283988887712</v>
+        <v>513.9007336836856</v>
       </c>
       <c r="AB5" t="n">
-        <v>571.5544242359318</v>
+        <v>703.1416555263014</v>
       </c>
       <c r="AC5" t="n">
-        <v>517.0060721685263</v>
+        <v>636.0348027883821</v>
       </c>
       <c r="AD5" t="n">
-        <v>417728.3988887712</v>
+        <v>513900.7336836857</v>
       </c>
       <c r="AE5" t="n">
-        <v>571554.4242359318</v>
+        <v>703141.6555263014</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.385043766272875e-06</v>
+        <v>2.093208289992827e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.23177083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>517006.0721685264</v>
+        <v>636034.802788382</v>
       </c>
     </row>
     <row r="6">
@@ -12256,28 +12256,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>401.7225626342507</v>
+        <v>505.8309325777872</v>
       </c>
       <c r="AB6" t="n">
-        <v>549.6545329448375</v>
+        <v>692.1001976387125</v>
       </c>
       <c r="AC6" t="n">
-        <v>497.1962757655636</v>
+        <v>626.0471261448013</v>
       </c>
       <c r="AD6" t="n">
-        <v>401722.5626342507</v>
+        <v>505830.9325777872</v>
       </c>
       <c r="AE6" t="n">
-        <v>549654.5329448375</v>
+        <v>692100.1976387125</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.402803711836347e-06</v>
+        <v>2.120048788602713e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.93229166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>497196.2757655636</v>
+        <v>626047.1261448013</v>
       </c>
     </row>
     <row r="7">
@@ -12362,28 +12362,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>395.3782661873536</v>
+        <v>491.6358523282886</v>
       </c>
       <c r="AB7" t="n">
-        <v>540.9739866555872</v>
+        <v>672.677862598606</v>
       </c>
       <c r="AC7" t="n">
-        <v>489.3441886309361</v>
+        <v>608.478431501504</v>
       </c>
       <c r="AD7" t="n">
-        <v>395378.2661873536</v>
+        <v>491635.8523282886</v>
       </c>
       <c r="AE7" t="n">
-        <v>540973.9866555872</v>
+        <v>672677.862598606</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.413526697836933e-06</v>
+        <v>2.136254372669061e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.75</v>
       </c>
       <c r="AH7" t="n">
-        <v>489344.1886309361</v>
+        <v>608478.431501504</v>
       </c>
     </row>
     <row r="8">
@@ -12468,28 +12468,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>389.9303979362167</v>
+        <v>486.1879840771517</v>
       </c>
       <c r="AB8" t="n">
-        <v>533.519972971397</v>
+        <v>665.2238489144158</v>
       </c>
       <c r="AC8" t="n">
-        <v>482.6015755509911</v>
+        <v>601.7358184215591</v>
       </c>
       <c r="AD8" t="n">
-        <v>389930.3979362167</v>
+        <v>486187.9840771517</v>
       </c>
       <c r="AE8" t="n">
-        <v>533519.972971397</v>
+        <v>665223.8489144158</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.422161794736444e-06</v>
+        <v>2.149304542530181e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.59375</v>
       </c>
       <c r="AH8" t="n">
-        <v>482601.5755509911</v>
+        <v>601735.8184215591</v>
       </c>
     </row>
     <row r="9">
@@ -12574,28 +12574,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>384.1181914842629</v>
+        <v>480.2051854246058</v>
       </c>
       <c r="AB9" t="n">
-        <v>525.5674556873821</v>
+        <v>657.0379198555539</v>
       </c>
       <c r="AC9" t="n">
-        <v>475.4080353551345</v>
+        <v>594.3311429430514</v>
       </c>
       <c r="AD9" t="n">
-        <v>384118.1914842629</v>
+        <v>480205.1854246057</v>
       </c>
       <c r="AE9" t="n">
-        <v>525567.4556873821</v>
+        <v>657037.9198555539</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.429508071203192e-06</v>
+        <v>2.160406925844866e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.4765625</v>
       </c>
       <c r="AH9" t="n">
-        <v>475408.0353551345</v>
+        <v>594331.1429430514</v>
       </c>
     </row>
     <row r="10">
@@ -12680,28 +12680,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>383.1763740901923</v>
+        <v>479.263368030535</v>
       </c>
       <c r="AB10" t="n">
-        <v>524.2788195787638</v>
+        <v>655.7492837469356</v>
       </c>
       <c r="AC10" t="n">
-        <v>474.2423848681105</v>
+        <v>593.1654924560273</v>
       </c>
       <c r="AD10" t="n">
-        <v>383176.3740901923</v>
+        <v>479263.3680305351</v>
       </c>
       <c r="AE10" t="n">
-        <v>524278.8195787638</v>
+        <v>655749.2837469355</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.433219874049549e-06</v>
+        <v>2.166016551098601e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.41145833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>474242.3848681105</v>
+        <v>593165.4924560273</v>
       </c>
     </row>
   </sheetData>
@@ -12977,28 +12977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>385.0625787080378</v>
+        <v>483.2418786448523</v>
       </c>
       <c r="AB2" t="n">
-        <v>526.859607950375</v>
+        <v>661.1928574889452</v>
       </c>
       <c r="AC2" t="n">
-        <v>476.5768664196943</v>
+        <v>598.0895391602033</v>
       </c>
       <c r="AD2" t="n">
-        <v>385062.5787080379</v>
+        <v>483241.8786448523</v>
       </c>
       <c r="AE2" t="n">
-        <v>526859.6079503749</v>
+        <v>661192.8574889451</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.400940200897243e-06</v>
+        <v>2.214169162706146e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.00260416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>476576.8664196943</v>
+        <v>598089.5391602033</v>
       </c>
     </row>
     <row r="3">
@@ -13083,28 +13083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>341.3465373686656</v>
+        <v>431.9670256683388</v>
       </c>
       <c r="AB3" t="n">
-        <v>467.0453915742167</v>
+        <v>591.0363415596162</v>
       </c>
       <c r="AC3" t="n">
-        <v>422.4712349046967</v>
+        <v>534.628662645881</v>
       </c>
       <c r="AD3" t="n">
-        <v>341346.5373686656</v>
+        <v>431967.0256683388</v>
       </c>
       <c r="AE3" t="n">
-        <v>467045.3915742167</v>
+        <v>591036.3415596162</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.514637343222823e-06</v>
+        <v>2.39386613068799e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.0625</v>
       </c>
       <c r="AH3" t="n">
-        <v>422471.2349046967</v>
+        <v>534628.6626458811</v>
       </c>
     </row>
     <row r="4">
@@ -13189,28 +13189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>322.2869652100434</v>
+        <v>412.9927048557373</v>
       </c>
       <c r="AB4" t="n">
-        <v>440.9672440978104</v>
+        <v>565.0748387358591</v>
       </c>
       <c r="AC4" t="n">
-        <v>398.8819492225288</v>
+        <v>511.1448892144252</v>
       </c>
       <c r="AD4" t="n">
-        <v>322286.9652100434</v>
+        <v>412992.7048557373</v>
       </c>
       <c r="AE4" t="n">
-        <v>440967.2440978104</v>
+        <v>565074.8387358591</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.547378090582146e-06</v>
+        <v>2.445612488684239e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.54166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>398881.9492225288</v>
+        <v>511144.8892144252</v>
       </c>
     </row>
     <row r="5">
@@ -13295,28 +13295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>322.9472062226585</v>
+        <v>413.4823536677602</v>
       </c>
       <c r="AB5" t="n">
-        <v>441.8706149790481</v>
+        <v>565.7447978422499</v>
       </c>
       <c r="AC5" t="n">
-        <v>399.6991036547502</v>
+        <v>511.7509083639956</v>
       </c>
       <c r="AD5" t="n">
-        <v>322947.2062226585</v>
+        <v>413482.3536677602</v>
       </c>
       <c r="AE5" t="n">
-        <v>441870.6149790481</v>
+        <v>565744.7978422499</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.551183852668357e-06</v>
+        <v>2.451627449955597e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.48958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>399699.1036547502</v>
+        <v>511750.9083639956</v>
       </c>
     </row>
   </sheetData>
@@ -13592,28 +13592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>831.0378518289833</v>
+        <v>991.8766405162063</v>
       </c>
       <c r="AB2" t="n">
-        <v>1137.062651674908</v>
+        <v>1357.129378063333</v>
       </c>
       <c r="AC2" t="n">
-        <v>1028.542988076508</v>
+        <v>1227.606854964013</v>
       </c>
       <c r="AD2" t="n">
-        <v>831037.8518289833</v>
+        <v>991876.6405162063</v>
       </c>
       <c r="AE2" t="n">
-        <v>1137062.651674908</v>
+        <v>1357129.378063333</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.671593199501444e-07</v>
+        <v>1.264219682854519e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1028542.988076508</v>
+        <v>1227606.854964013</v>
       </c>
     </row>
     <row r="3">
@@ -13698,28 +13698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>622.0875307354825</v>
+        <v>749.1149296675158</v>
       </c>
       <c r="AB3" t="n">
-        <v>851.167604117204</v>
+        <v>1024.972095389338</v>
       </c>
       <c r="AC3" t="n">
-        <v>769.9333626014926</v>
+        <v>927.1501971627501</v>
       </c>
       <c r="AD3" t="n">
-        <v>622087.5307354825</v>
+        <v>749114.9296675158</v>
       </c>
       <c r="AE3" t="n">
-        <v>851167.604117204</v>
+        <v>1024972.095389338</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.078816259763573e-06</v>
+        <v>1.572791433360844e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.88020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>769933.3626014926</v>
+        <v>927150.1971627502</v>
       </c>
     </row>
     <row r="4">
@@ -13804,28 +13804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>564.52886818523</v>
+        <v>683.082084464823</v>
       </c>
       <c r="AB4" t="n">
-        <v>772.413302706972</v>
+        <v>934.6230434194842</v>
       </c>
       <c r="AC4" t="n">
-        <v>698.6952611854971</v>
+        <v>845.423931907208</v>
       </c>
       <c r="AD4" t="n">
-        <v>564528.8681852299</v>
+        <v>683082.084464823</v>
       </c>
       <c r="AE4" t="n">
-        <v>772413.302706972</v>
+        <v>934623.0434194843</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.160272474927498e-06</v>
+        <v>1.691545332594709e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.84895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>698695.261185497</v>
+        <v>845423.9319072081</v>
       </c>
     </row>
     <row r="5">
@@ -13910,28 +13910,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>536.2555841363966</v>
+        <v>654.7234595614178</v>
       </c>
       <c r="AB5" t="n">
-        <v>733.7285481420981</v>
+        <v>895.8215217324127</v>
       </c>
       <c r="AC5" t="n">
-        <v>663.7025253019006</v>
+        <v>810.3255729916729</v>
       </c>
       <c r="AD5" t="n">
-        <v>536255.5841363965</v>
+        <v>654723.4595614178</v>
       </c>
       <c r="AE5" t="n">
-        <v>733728.5481420981</v>
+        <v>895821.5217324127</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.204374650176356e-06</v>
+        <v>1.755841289201058e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.87239583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>663702.5253019006</v>
+        <v>810325.5729916729</v>
       </c>
     </row>
     <row r="6">
@@ -14016,28 +14016,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>524.4858900154563</v>
+        <v>634.4796722965883</v>
       </c>
       <c r="AB6" t="n">
-        <v>717.6247334035693</v>
+        <v>868.1230789038101</v>
       </c>
       <c r="AC6" t="n">
-        <v>649.135636040171</v>
+        <v>785.2706306716234</v>
       </c>
       <c r="AD6" t="n">
-        <v>524485.8900154564</v>
+        <v>634479.6722965883</v>
       </c>
       <c r="AE6" t="n">
-        <v>717624.7334035693</v>
+        <v>868123.0789038101</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.230864670795176e-06</v>
+        <v>1.794460727054139e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.3125</v>
       </c>
       <c r="AH6" t="n">
-        <v>649135.636040171</v>
+        <v>785270.6306716234</v>
       </c>
     </row>
     <row r="7">
@@ -14122,28 +14122,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>507.9409832497871</v>
+        <v>618.0200168769397</v>
       </c>
       <c r="AB7" t="n">
-        <v>694.9872620570087</v>
+        <v>845.6022522098988</v>
       </c>
       <c r="AC7" t="n">
-        <v>628.6586531870356</v>
+        <v>764.8991600692002</v>
       </c>
       <c r="AD7" t="n">
-        <v>507940.9832497871</v>
+        <v>618020.0168769397</v>
       </c>
       <c r="AE7" t="n">
-        <v>694987.2620570087</v>
+        <v>845602.2522098988</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.248333248077686e-06</v>
+        <v>1.819927926361049e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.9609375</v>
       </c>
       <c r="AH7" t="n">
-        <v>628658.6531870356</v>
+        <v>764899.1600692002</v>
       </c>
     </row>
     <row r="8">
@@ -14228,28 +14228,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>500.9436557118833</v>
+        <v>611.0226893390359</v>
       </c>
       <c r="AB8" t="n">
-        <v>685.4132098193447</v>
+        <v>836.0281999722349</v>
       </c>
       <c r="AC8" t="n">
-        <v>619.9983350576674</v>
+        <v>756.2388419398322</v>
       </c>
       <c r="AD8" t="n">
-        <v>500943.6557118833</v>
+        <v>611022.6893390359</v>
       </c>
       <c r="AE8" t="n">
-        <v>685413.2098193447</v>
+        <v>836028.1999722349</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.262547405482907e-06</v>
+        <v>1.840650551550507e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.67447916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>619998.3350576675</v>
+        <v>756238.8419398322</v>
       </c>
     </row>
     <row r="9">
@@ -14334,28 +14334,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>496.2030909931233</v>
+        <v>606.2821246202759</v>
       </c>
       <c r="AB9" t="n">
-        <v>678.9269600321821</v>
+        <v>829.5419501850723</v>
       </c>
       <c r="AC9" t="n">
-        <v>614.131123846683</v>
+        <v>750.3716307288477</v>
       </c>
       <c r="AD9" t="n">
-        <v>496203.0909931234</v>
+        <v>606282.1246202759</v>
       </c>
       <c r="AE9" t="n">
-        <v>678926.9600321822</v>
+        <v>829541.9501850724</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.270659525618209e-06</v>
+        <v>1.852477100269743e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.51822916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>614131.123846683</v>
+        <v>750371.6307288477</v>
       </c>
     </row>
     <row r="10">
@@ -14440,28 +14440,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>492.1374296199293</v>
+        <v>593.7423701031926</v>
       </c>
       <c r="AB10" t="n">
-        <v>673.3641427770572</v>
+        <v>812.3845048398734</v>
       </c>
       <c r="AC10" t="n">
-        <v>609.099214062924</v>
+        <v>734.851667886769</v>
       </c>
       <c r="AD10" t="n">
-        <v>492137.4296199293</v>
+        <v>593742.3701031925</v>
       </c>
       <c r="AE10" t="n">
-        <v>673364.1427770571</v>
+        <v>812384.5048398734</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.277120506256946e-06</v>
+        <v>1.86189647535586e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.40104166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>609099.214062924</v>
+        <v>734851.6678867689</v>
       </c>
     </row>
     <row r="11">
@@ -14546,28 +14546,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>488.075393233984</v>
+        <v>589.6803337172473</v>
       </c>
       <c r="AB11" t="n">
-        <v>667.8062853894091</v>
+        <v>806.8266474522255</v>
       </c>
       <c r="AC11" t="n">
-        <v>604.0717907838514</v>
+        <v>729.8242446076963</v>
       </c>
       <c r="AD11" t="n">
-        <v>488075.393233984</v>
+        <v>589680.3337172474</v>
       </c>
       <c r="AE11" t="n">
-        <v>667806.2853894092</v>
+        <v>806826.6474522256</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.284419021422926e-06</v>
+        <v>1.872536880545734e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>24.2578125</v>
       </c>
       <c r="AH11" t="n">
-        <v>604071.7907838514</v>
+        <v>729824.2446076963</v>
       </c>
     </row>
     <row r="12">
@@ -14652,28 +14652,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>484.0425754413246</v>
+        <v>585.6475159245881</v>
       </c>
       <c r="AB12" t="n">
-        <v>662.2884061701283</v>
+        <v>801.3087682329447</v>
       </c>
       <c r="AC12" t="n">
-        <v>599.0805302128666</v>
+        <v>724.8329840367115</v>
       </c>
       <c r="AD12" t="n">
-        <v>484042.5754413246</v>
+        <v>585647.5159245881</v>
       </c>
       <c r="AE12" t="n">
-        <v>662288.4061701283</v>
+        <v>801308.7682329447</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.288750271406672e-06</v>
+        <v>1.878851350510872e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>25</v>
+        <v>24.1796875</v>
       </c>
       <c r="AH12" t="n">
-        <v>599080.5302128666</v>
+        <v>724832.9840367115</v>
       </c>
     </row>
     <row r="13">
@@ -14758,28 +14758,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>479.5019787843819</v>
+        <v>581.1069192676454</v>
       </c>
       <c r="AB13" t="n">
-        <v>656.0757615071124</v>
+        <v>795.0961235699289</v>
       </c>
       <c r="AC13" t="n">
-        <v>593.4608116369874</v>
+        <v>719.2132654608323</v>
       </c>
       <c r="AD13" t="n">
-        <v>479501.9787843819</v>
+        <v>581106.9192676453</v>
       </c>
       <c r="AE13" t="n">
-        <v>656075.7615071124</v>
+        <v>795096.1235699288</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.29638380038355e-06</v>
+        <v>1.889980167742248e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>24.03645833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>593460.8116369874</v>
+        <v>719213.2654608323</v>
       </c>
     </row>
     <row r="14">
@@ -14864,28 +14864,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>467.9379395303987</v>
+        <v>577.9316323029797</v>
       </c>
       <c r="AB14" t="n">
-        <v>640.2533328304066</v>
+        <v>790.7515558610992</v>
       </c>
       <c r="AC14" t="n">
-        <v>579.1484533462683</v>
+        <v>715.2833371964942</v>
       </c>
       <c r="AD14" t="n">
-        <v>467937.9395303987</v>
+        <v>577931.6323029797</v>
       </c>
       <c r="AE14" t="n">
-        <v>640253.3328304066</v>
+        <v>790751.5558610992</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.300116811419264e-06</v>
+        <v>1.895422473347559e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>24</v>
+        <v>23.97135416666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>579148.4533462683</v>
+        <v>715283.3371964942</v>
       </c>
     </row>
     <row r="15">
@@ -14970,28 +14970,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>464.9926308587969</v>
+        <v>574.9863236313779</v>
       </c>
       <c r="AB15" t="n">
-        <v>636.223431568073</v>
+        <v>786.7216545987654</v>
       </c>
       <c r="AC15" t="n">
-        <v>575.5031602044097</v>
+        <v>711.6380440546357</v>
       </c>
       <c r="AD15" t="n">
-        <v>464992.6308587969</v>
+        <v>574986.3236313779</v>
       </c>
       <c r="AE15" t="n">
-        <v>636223.431568073</v>
+        <v>786721.6545987654</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.300068952303422e-06</v>
+        <v>1.895352700198773e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>24</v>
+        <v>23.97135416666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>575503.1602044097</v>
+        <v>711638.0440546357</v>
       </c>
     </row>
     <row r="16">
@@ -15076,28 +15076,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>462.8331184473752</v>
+        <v>572.8268112199563</v>
       </c>
       <c r="AB16" t="n">
-        <v>633.2686914158023</v>
+        <v>783.7669144464946</v>
       </c>
       <c r="AC16" t="n">
-        <v>572.8304163052679</v>
+        <v>708.9653001554939</v>
       </c>
       <c r="AD16" t="n">
-        <v>462833.1184473753</v>
+        <v>572826.8112199563</v>
       </c>
       <c r="AE16" t="n">
-        <v>633268.6914158023</v>
+        <v>783766.9144464947</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.30425662493964e-06</v>
+        <v>1.901457850717553e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>24</v>
+        <v>23.89322916666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>572830.416305268</v>
+        <v>708965.3001554939</v>
       </c>
     </row>
     <row r="17">
@@ -15182,28 +15182,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>459.4980595066556</v>
+        <v>569.4917522792367</v>
       </c>
       <c r="AB17" t="n">
-        <v>628.7055166406932</v>
+        <v>779.2037396713856</v>
       </c>
       <c r="AC17" t="n">
-        <v>568.7027445262393</v>
+        <v>704.8376283764651</v>
       </c>
       <c r="AD17" t="n">
-        <v>459498.0595066556</v>
+        <v>569491.7522792367</v>
       </c>
       <c r="AE17" t="n">
-        <v>628705.5166406932</v>
+        <v>779203.7396713856</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.307439256143166e-06</v>
+        <v>1.906097765111826e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>24</v>
+        <v>23.828125</v>
       </c>
       <c r="AH17" t="n">
-        <v>568702.7445262392</v>
+        <v>704837.6283764651</v>
       </c>
     </row>
     <row r="18">
@@ -15288,28 +15288,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>457.1165909679472</v>
+        <v>567.1102837405282</v>
       </c>
       <c r="AB18" t="n">
-        <v>625.4470863230554</v>
+        <v>775.9453093537479</v>
       </c>
       <c r="AC18" t="n">
-        <v>565.7552942248811</v>
+        <v>701.8901780751071</v>
       </c>
       <c r="AD18" t="n">
-        <v>457116.5909679472</v>
+        <v>567110.2837405282</v>
       </c>
       <c r="AE18" t="n">
-        <v>625447.0863230553</v>
+        <v>775945.3093537479</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.307295678795638e-06</v>
+        <v>1.905888445665468e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>24</v>
+        <v>23.828125</v>
       </c>
       <c r="AH18" t="n">
-        <v>565755.2942248811</v>
+        <v>701890.178075107</v>
       </c>
     </row>
     <row r="19">
@@ -15394,28 +15394,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>454.4110424670604</v>
+        <v>564.4047352396415</v>
       </c>
       <c r="AB19" t="n">
-        <v>621.7452355037663</v>
+        <v>772.2434585344587</v>
       </c>
       <c r="AC19" t="n">
-        <v>562.4067428522047</v>
+        <v>698.5416267024307</v>
       </c>
       <c r="AD19" t="n">
-        <v>454411.0424670604</v>
+        <v>564404.7352396415</v>
       </c>
       <c r="AE19" t="n">
-        <v>621745.2355037662</v>
+        <v>772243.4585344587</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.311100478505117e-06</v>
+        <v>1.911435410993959e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>24</v>
+        <v>23.76302083333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>562406.7428522047</v>
+        <v>698541.6267024307</v>
       </c>
     </row>
     <row r="20">
@@ -15500,28 +15500,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>454.2010531609101</v>
+        <v>564.194745933491</v>
       </c>
       <c r="AB20" t="n">
-        <v>621.4579188710169</v>
+        <v>771.9561419017097</v>
       </c>
       <c r="AC20" t="n">
-        <v>562.1468473156336</v>
+        <v>698.2817311658596</v>
       </c>
       <c r="AD20" t="n">
-        <v>454201.0531609101</v>
+        <v>564194.745933491</v>
       </c>
       <c r="AE20" t="n">
-        <v>621457.9188710169</v>
+        <v>771956.1419017096</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.31136370364225e-06</v>
+        <v>1.911819163312282e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>24</v>
+        <v>23.76302083333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>562146.8473156337</v>
+        <v>698281.7311658596</v>
       </c>
     </row>
   </sheetData>
@@ -15797,28 +15797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>344.5743789717909</v>
+        <v>441.063492524768</v>
       </c>
       <c r="AB2" t="n">
-        <v>471.4618668579341</v>
+        <v>603.4825288203775</v>
       </c>
       <c r="AC2" t="n">
-        <v>426.4662079858981</v>
+        <v>545.8870032628088</v>
       </c>
       <c r="AD2" t="n">
-        <v>344574.3789717909</v>
+        <v>441063.4925247681</v>
       </c>
       <c r="AE2" t="n">
-        <v>471461.8668579341</v>
+        <v>603482.5288203775</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.479488637916436e-06</v>
+        <v>2.370488326387762e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.20833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>426466.2079858981</v>
+        <v>545887.0032628088</v>
       </c>
     </row>
     <row r="3">
@@ -15903,28 +15903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>305.9342883735413</v>
+        <v>395.1586321460669</v>
       </c>
       <c r="AB3" t="n">
-        <v>418.5927902209222</v>
+        <v>540.6734736707288</v>
       </c>
       <c r="AC3" t="n">
-        <v>378.6428818209075</v>
+        <v>489.0723561835798</v>
       </c>
       <c r="AD3" t="n">
-        <v>305934.2883735413</v>
+        <v>395158.6321460669</v>
       </c>
       <c r="AE3" t="n">
-        <v>418592.7902209222</v>
+        <v>540673.4736707287</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.575511350992465e-06</v>
+        <v>2.524339268247895e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>378642.8818209075</v>
+        <v>489072.3561835798</v>
       </c>
     </row>
     <row r="4">
@@ -16009,28 +16009,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>306.7980329890317</v>
+        <v>396.0223767615573</v>
       </c>
       <c r="AB4" t="n">
-        <v>419.7746037095592</v>
+        <v>541.8552871593656</v>
       </c>
       <c r="AC4" t="n">
-        <v>379.7119046888746</v>
+        <v>490.1413790515469</v>
       </c>
       <c r="AD4" t="n">
-        <v>306798.0329890317</v>
+        <v>396022.3767615573</v>
       </c>
       <c r="AE4" t="n">
-        <v>419774.6037095592</v>
+        <v>541855.2871593656</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.577859654742013e-06</v>
+        <v>2.528101802465769e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.6328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>379711.9046888746</v>
+        <v>490141.3790515469</v>
       </c>
     </row>
   </sheetData>
@@ -16306,28 +16306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>669.8431734355042</v>
+        <v>801.4893272410501</v>
       </c>
       <c r="AB2" t="n">
-        <v>916.5089812896367</v>
+        <v>1096.633056744795</v>
       </c>
       <c r="AC2" t="n">
-        <v>829.0386504437872</v>
+        <v>991.971936943233</v>
       </c>
       <c r="AD2" t="n">
-        <v>669843.1734355042</v>
+        <v>801489.3272410501</v>
       </c>
       <c r="AE2" t="n">
-        <v>916508.9812896367</v>
+        <v>1096633.056744795</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.004885913690493e-06</v>
+        <v>1.492098012834563e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.23958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>829038.6504437872</v>
+        <v>991971.936943233</v>
       </c>
     </row>
     <row r="3">
@@ -16412,28 +16412,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>533.3821259653917</v>
+        <v>648.47651327242</v>
       </c>
       <c r="AB3" t="n">
-        <v>729.7969559045015</v>
+        <v>887.2741742239864</v>
       </c>
       <c r="AC3" t="n">
-        <v>660.1461587094359</v>
+        <v>802.593972333173</v>
       </c>
       <c r="AD3" t="n">
-        <v>533382.1259653916</v>
+        <v>648476.51327242</v>
       </c>
       <c r="AE3" t="n">
-        <v>729796.9559045015</v>
+        <v>887274.1742239863</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.192816894875332e-06</v>
+        <v>1.771146051776737e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.16145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>660146.1587094358</v>
+        <v>802593.972333173</v>
       </c>
     </row>
     <row r="4">
@@ -16518,28 +16518,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>489.4196176122821</v>
+        <v>596.4513842979298</v>
       </c>
       <c r="AB4" t="n">
-        <v>669.6455124867907</v>
+        <v>816.0910975743847</v>
       </c>
       <c r="AC4" t="n">
-        <v>605.7354846284303</v>
+        <v>738.2045086129338</v>
       </c>
       <c r="AD4" t="n">
-        <v>489419.6176122821</v>
+        <v>596451.3842979298</v>
       </c>
       <c r="AE4" t="n">
-        <v>669645.5124867908</v>
+        <v>816091.0975743847</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.261953802038777e-06</v>
+        <v>1.873803518048951e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.6640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>605735.4846284303</v>
+        <v>738204.5086129338</v>
       </c>
     </row>
     <row r="5">
@@ -16624,28 +16624,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>466.659978193121</v>
+        <v>573.606404024197</v>
       </c>
       <c r="AB5" t="n">
-        <v>638.504769749068</v>
+        <v>784.8335877144642</v>
       </c>
       <c r="AC5" t="n">
-        <v>577.566770671289</v>
+        <v>709.9301716238537</v>
       </c>
       <c r="AD5" t="n">
-        <v>466659.978193121</v>
+        <v>573606.404024197</v>
       </c>
       <c r="AE5" t="n">
-        <v>638504.7697490681</v>
+        <v>784833.5877144642</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.299022528801473e-06</v>
+        <v>1.928844764808791e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.93489583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>577566.7706712889</v>
+        <v>709930.1716238536</v>
       </c>
     </row>
     <row r="6">
@@ -16730,28 +16730,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>457.6902081431196</v>
+        <v>564.6366339741957</v>
       </c>
       <c r="AB6" t="n">
-        <v>626.23193464833</v>
+        <v>772.5607526137261</v>
       </c>
       <c r="AC6" t="n">
-        <v>566.4652377275331</v>
+        <v>698.8286386800977</v>
       </c>
       <c r="AD6" t="n">
-        <v>457690.2081431196</v>
+        <v>564636.6339741957</v>
       </c>
       <c r="AE6" t="n">
-        <v>626231.93464833</v>
+        <v>772560.7526137261</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.319746186112431e-06</v>
+        <v>1.959616146386609e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.54427083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>566465.2377275331</v>
+        <v>698828.6386800976</v>
       </c>
     </row>
     <row r="7">
@@ -16836,28 +16836,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>450.2550473186606</v>
+        <v>548.9683498363148</v>
       </c>
       <c r="AB7" t="n">
-        <v>616.0588195921597</v>
+        <v>751.1227150203662</v>
       </c>
       <c r="AC7" t="n">
-        <v>557.2630304942671</v>
+        <v>679.4366173061733</v>
       </c>
       <c r="AD7" t="n">
-        <v>450255.0473186605</v>
+        <v>548968.3498363148</v>
       </c>
       <c r="AE7" t="n">
-        <v>616058.8195921597</v>
+        <v>751122.7150203661</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.336364917305371e-06</v>
+        <v>1.98429235634337e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.24479166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>557263.0304942671</v>
+        <v>679436.6173061733</v>
       </c>
     </row>
     <row r="8">
@@ -16942,28 +16942,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>444.3201469298522</v>
+        <v>543.0334494475064</v>
       </c>
       <c r="AB8" t="n">
-        <v>607.9384270508659</v>
+        <v>743.0023224790725</v>
       </c>
       <c r="AC8" t="n">
-        <v>549.9176368200718</v>
+        <v>672.0912236319781</v>
       </c>
       <c r="AD8" t="n">
-        <v>444320.1469298522</v>
+        <v>543033.4494475065</v>
       </c>
       <c r="AE8" t="n">
-        <v>607938.427050866</v>
+        <v>743002.3224790725</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.348231885537456e-06</v>
+        <v>2.001912943393332e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.0234375</v>
       </c>
       <c r="AH8" t="n">
-        <v>549917.6368200718</v>
+        <v>672091.2236319782</v>
       </c>
     </row>
     <row r="9">
@@ -17048,28 +17048,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>431.9049242954261</v>
+        <v>538.7660092719307</v>
       </c>
       <c r="AB9" t="n">
-        <v>590.9513717214779</v>
+        <v>737.1634225646762</v>
       </c>
       <c r="AC9" t="n">
-        <v>534.5518022098388</v>
+        <v>666.8095801304644</v>
       </c>
       <c r="AD9" t="n">
-        <v>431904.9242954261</v>
+        <v>538766.0092719307</v>
       </c>
       <c r="AE9" t="n">
-        <v>590951.3717214779</v>
+        <v>737163.4225646763</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.352336811655472e-06</v>
+        <v>2.008008115014389e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.95833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>534551.8022098388</v>
+        <v>666809.5801304644</v>
       </c>
     </row>
     <row r="10">
@@ -17154,28 +17154,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>426.9438418216211</v>
+        <v>533.8049267981256</v>
       </c>
       <c r="AB10" t="n">
-        <v>584.163399813306</v>
+        <v>730.3754506565044</v>
       </c>
       <c r="AC10" t="n">
-        <v>528.4116648136044</v>
+        <v>660.6694427342301</v>
       </c>
       <c r="AD10" t="n">
-        <v>426943.8418216211</v>
+        <v>533804.9267981256</v>
       </c>
       <c r="AE10" t="n">
-        <v>584163.3998133061</v>
+        <v>730375.4506565044</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.36072081227227e-06</v>
+        <v>2.02045704129497e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.80208333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>528411.6648136043</v>
+        <v>660669.4427342301</v>
       </c>
     </row>
     <row r="11">
@@ -17260,28 +17260,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>422.0541906582439</v>
+        <v>520.8527445219188</v>
       </c>
       <c r="AB11" t="n">
-        <v>577.4731633753886</v>
+        <v>712.6537034562443</v>
       </c>
       <c r="AC11" t="n">
-        <v>522.3599351515159</v>
+        <v>644.6390342141343</v>
       </c>
       <c r="AD11" t="n">
-        <v>422054.1906582439</v>
+        <v>520852.7445219188</v>
       </c>
       <c r="AE11" t="n">
-        <v>577473.1633753886</v>
+        <v>712653.7034562443</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.367313572401206e-06</v>
+        <v>2.030246256322727e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23.69791666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>522359.9351515159</v>
+        <v>644639.0342141343</v>
       </c>
     </row>
     <row r="12">
@@ -17366,28 +17366,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>417.9412453127617</v>
+        <v>516.7397991764366</v>
       </c>
       <c r="AB12" t="n">
-        <v>571.8456501033571</v>
+        <v>707.026190184213</v>
       </c>
       <c r="AC12" t="n">
-        <v>517.2695038479028</v>
+        <v>639.5486029105213</v>
       </c>
       <c r="AD12" t="n">
-        <v>417941.2453127617</v>
+        <v>516739.7991764366</v>
       </c>
       <c r="AE12" t="n">
-        <v>571845.6501033572</v>
+        <v>707026.190184213</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.371866308641188e-06</v>
+        <v>2.03700635575699e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>23.60677083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>517269.5038479028</v>
+        <v>639548.6029105212</v>
       </c>
     </row>
     <row r="13">
@@ -17472,28 +17472,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>414.6307851951699</v>
+        <v>513.4293390588449</v>
       </c>
       <c r="AB13" t="n">
-        <v>567.3161325232754</v>
+        <v>702.4966726041313</v>
       </c>
       <c r="AC13" t="n">
-        <v>513.1722770684461</v>
+        <v>635.4513761310645</v>
       </c>
       <c r="AD13" t="n">
-        <v>414630.78519517</v>
+        <v>513429.3390588449</v>
       </c>
       <c r="AE13" t="n">
-        <v>567316.1325232754</v>
+        <v>702496.6726041313</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.375025857835056e-06</v>
+        <v>2.041697790883499e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>23.5546875</v>
       </c>
       <c r="AH13" t="n">
-        <v>513172.277068446</v>
+        <v>635451.3761310645</v>
       </c>
     </row>
     <row r="14">
@@ -17578,28 +17578,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>415.3689365642341</v>
+        <v>514.167490427909</v>
       </c>
       <c r="AB14" t="n">
-        <v>568.3261037913688</v>
+        <v>703.5066438722247</v>
       </c>
       <c r="AC14" t="n">
-        <v>514.0858580962164</v>
+        <v>636.364957158835</v>
       </c>
       <c r="AD14" t="n">
-        <v>415368.9365642341</v>
+        <v>514167.490427909</v>
       </c>
       <c r="AE14" t="n">
-        <v>568326.1037913689</v>
+        <v>703506.6438722247</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.37490146613451e-06</v>
+        <v>2.041513088713164e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>24</v>
+        <v>23.5546875</v>
       </c>
       <c r="AH14" t="n">
-        <v>514085.8580962163</v>
+        <v>636364.9571588349</v>
       </c>
     </row>
   </sheetData>
@@ -17875,28 +17875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>742.7907649192101</v>
+        <v>893.0731933997075</v>
       </c>
       <c r="AB2" t="n">
-        <v>1016.319094178249</v>
+        <v>1221.942142818088</v>
       </c>
       <c r="AC2" t="n">
-        <v>919.3230262426836</v>
+        <v>1105.321699714098</v>
       </c>
       <c r="AD2" t="n">
-        <v>742790.7649192101</v>
+        <v>893073.1933997076</v>
       </c>
       <c r="AE2" t="n">
-        <v>1016319.094178249</v>
+        <v>1221942.142818088</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.335937839493852e-07</v>
+        <v>1.372795958182145e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.99739583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>919323.0262426835</v>
+        <v>1105321.699714098</v>
       </c>
     </row>
     <row r="3">
@@ -17981,28 +17981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>572.3418596086673</v>
+        <v>697.5487697242245</v>
       </c>
       <c r="AB3" t="n">
-        <v>783.1033822573741</v>
+        <v>954.4170004165076</v>
       </c>
       <c r="AC3" t="n">
-        <v>708.3650945472293</v>
+        <v>863.3287814294287</v>
       </c>
       <c r="AD3" t="n">
-        <v>572341.8596086673</v>
+        <v>697548.7697242245</v>
       </c>
       <c r="AE3" t="n">
-        <v>783103.382257374</v>
+        <v>954417.0004165076</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.134645521025483e-06</v>
+        <v>1.668430972884138e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.96875</v>
       </c>
       <c r="AH3" t="n">
-        <v>708365.0945472294</v>
+        <v>863328.7814294286</v>
       </c>
     </row>
     <row r="4">
@@ -18087,28 +18087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>530.8325969138129</v>
+        <v>639.4079251491993</v>
       </c>
       <c r="AB4" t="n">
-        <v>726.3085777788478</v>
+        <v>874.8661318759239</v>
       </c>
       <c r="AC4" t="n">
-        <v>656.9907064961252</v>
+        <v>791.3701361320128</v>
       </c>
       <c r="AD4" t="n">
-        <v>530832.5969138129</v>
+        <v>639407.9251491993</v>
       </c>
       <c r="AE4" t="n">
-        <v>726308.5777788479</v>
+        <v>874866.1318759238</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.209698660993633e-06</v>
+        <v>1.7787922980863e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.23697916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>656990.7064961252</v>
+        <v>791370.1361320128</v>
       </c>
     </row>
     <row r="5">
@@ -18193,28 +18193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>505.57432720169</v>
+        <v>614.0643145825051</v>
       </c>
       <c r="AB5" t="n">
-        <v>691.7490988425063</v>
+        <v>840.1898858173844</v>
       </c>
       <c r="AC5" t="n">
-        <v>625.7295357249345</v>
+        <v>760.0033423288835</v>
       </c>
       <c r="AD5" t="n">
-        <v>505574.32720169</v>
+        <v>614064.314582505</v>
       </c>
       <c r="AE5" t="n">
-        <v>691749.0988425063</v>
+        <v>840189.8858173843</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.250357523438217e-06</v>
+        <v>1.83857881657841e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.390625</v>
       </c>
       <c r="AH5" t="n">
-        <v>625729.5357249345</v>
+        <v>760003.3423288835</v>
       </c>
     </row>
     <row r="6">
@@ -18299,28 +18299,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>486.9931656532116</v>
+        <v>595.568404380047</v>
       </c>
       <c r="AB6" t="n">
-        <v>666.3255338688851</v>
+        <v>814.8829654964127</v>
       </c>
       <c r="AC6" t="n">
-        <v>602.7323601101983</v>
+        <v>737.1116789648595</v>
       </c>
       <c r="AD6" t="n">
-        <v>486993.1656532116</v>
+        <v>595568.404380047</v>
       </c>
       <c r="AE6" t="n">
-        <v>666325.5338688851</v>
+        <v>814882.9654964127</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.274148320647998e-06</v>
+        <v>1.873561815408326e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.90885416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>602732.3601101984</v>
+        <v>737111.6789648595</v>
       </c>
     </row>
     <row r="7">
@@ -18405,28 +18405,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>479.3135870422528</v>
+        <v>587.8888257690883</v>
       </c>
       <c r="AB7" t="n">
-        <v>655.8179956142742</v>
+        <v>804.3754272418017</v>
       </c>
       <c r="AC7" t="n">
-        <v>593.2276465591849</v>
+        <v>727.606965413846</v>
       </c>
       <c r="AD7" t="n">
-        <v>479313.5870422528</v>
+        <v>587888.8257690882</v>
       </c>
       <c r="AE7" t="n">
-        <v>655817.9956142742</v>
+        <v>804375.4272418017</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.290943258432362e-06</v>
+        <v>1.898257805361002e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.58333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>593227.6465591849</v>
+        <v>727606.965413846</v>
       </c>
     </row>
     <row r="8">
@@ -18511,28 +18511,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>473.6227636792136</v>
+        <v>573.8395857929534</v>
       </c>
       <c r="AB8" t="n">
-        <v>648.0315600275561</v>
+        <v>785.1526372977299</v>
       </c>
       <c r="AC8" t="n">
-        <v>586.1843374565321</v>
+        <v>710.2187715626814</v>
       </c>
       <c r="AD8" t="n">
-        <v>473622.7636792136</v>
+        <v>573839.5857929534</v>
       </c>
       <c r="AE8" t="n">
-        <v>648031.5600275561</v>
+        <v>785152.63729773</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.30179049691428e-06</v>
+        <v>1.914208045606199e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.38802083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>586184.3374565322</v>
+        <v>710218.7715626813</v>
       </c>
     </row>
     <row r="9">
@@ -18617,28 +18617,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>468.0200930398898</v>
+        <v>568.2369151536296</v>
       </c>
       <c r="AB9" t="n">
-        <v>640.3657388864493</v>
+        <v>777.4868161566231</v>
       </c>
       <c r="AC9" t="n">
-        <v>579.2501315260851</v>
+        <v>703.2845656322344</v>
       </c>
       <c r="AD9" t="n">
-        <v>468020.0930398898</v>
+        <v>568236.9151536296</v>
       </c>
       <c r="AE9" t="n">
-        <v>640365.7388864494</v>
+        <v>777486.8161566232</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.312881493564331e-06</v>
+        <v>1.930516718216457e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.1796875</v>
       </c>
       <c r="AH9" t="n">
-        <v>579250.1315260851</v>
+        <v>703284.5656322343</v>
       </c>
     </row>
     <row r="10">
@@ -18723,28 +18723,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>463.6584603845644</v>
+        <v>563.8752824983042</v>
       </c>
       <c r="AB10" t="n">
-        <v>634.3979606657807</v>
+        <v>771.5190379359545</v>
       </c>
       <c r="AC10" t="n">
-        <v>573.8519096829679</v>
+        <v>697.8863437891169</v>
       </c>
       <c r="AD10" t="n">
-        <v>463658.4603845644</v>
+        <v>563875.2824983042</v>
       </c>
       <c r="AE10" t="n">
-        <v>634397.9606657807</v>
+        <v>771519.0379359545</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.320072359524255e-06</v>
+        <v>1.941090472985745e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.04947916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>573851.9096829678</v>
+        <v>697886.3437891169</v>
       </c>
     </row>
     <row r="11">
@@ -18829,28 +18829,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>451.6363264328118</v>
+        <v>560.1262243050755</v>
       </c>
       <c r="AB11" t="n">
-        <v>617.9487466138753</v>
+        <v>766.389411119205</v>
       </c>
       <c r="AC11" t="n">
-        <v>558.9725855335593</v>
+        <v>693.2462813562813</v>
       </c>
       <c r="AD11" t="n">
-        <v>451636.3264328117</v>
+        <v>560126.2243050756</v>
       </c>
       <c r="AE11" t="n">
-        <v>617948.7466138753</v>
+        <v>766389.4111192049</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.322924330091411e-06</v>
+        <v>1.945284131656954e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23.99739583333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>558972.5855335592</v>
+        <v>693246.2813562814</v>
       </c>
     </row>
     <row r="12">
@@ -18935,28 +18935,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>446.7274281431839</v>
+        <v>555.2173260154477</v>
       </c>
       <c r="AB12" t="n">
-        <v>611.2321754086983</v>
+        <v>759.672839914028</v>
       </c>
       <c r="AC12" t="n">
-        <v>552.8970344574375</v>
+        <v>687.1707302801598</v>
       </c>
       <c r="AD12" t="n">
-        <v>446727.4281431839</v>
+        <v>555217.3260154477</v>
       </c>
       <c r="AE12" t="n">
-        <v>611232.1754086983</v>
+        <v>759672.8399140281</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.33074896728848e-06</v>
+        <v>1.9567898105754e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>23.85416666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>552897.0344574375</v>
+        <v>687170.7302801597</v>
       </c>
     </row>
     <row r="13">
@@ -19041,28 +19041,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>443.6230615395817</v>
+        <v>552.1129594118455</v>
       </c>
       <c r="AB13" t="n">
-        <v>606.984644066661</v>
+        <v>755.4253085719909</v>
       </c>
       <c r="AC13" t="n">
-        <v>549.0548815452366</v>
+        <v>683.3285773679588</v>
       </c>
       <c r="AD13" t="n">
-        <v>443623.0615395817</v>
+        <v>552112.9594118455</v>
       </c>
       <c r="AE13" t="n">
-        <v>606984.644066661</v>
+        <v>755425.3085719908</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.333990950924649e-06</v>
+        <v>1.961556961030706e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>23.7890625</v>
       </c>
       <c r="AH13" t="n">
-        <v>549054.8815452367</v>
+        <v>683328.5773679588</v>
       </c>
     </row>
     <row r="14">
@@ -19147,28 +19147,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>439.5620835390461</v>
+        <v>539.8641569988065</v>
       </c>
       <c r="AB14" t="n">
-        <v>601.4282348086231</v>
+        <v>738.6659567314463</v>
       </c>
       <c r="AC14" t="n">
-        <v>544.0287681883163</v>
+        <v>668.1687145451777</v>
       </c>
       <c r="AD14" t="n">
-        <v>439562.0835390461</v>
+        <v>539864.1569988065</v>
       </c>
       <c r="AE14" t="n">
-        <v>601428.2348086231</v>
+        <v>738665.9567314463</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.338256718866976e-06</v>
+        <v>1.967829527419267e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>24</v>
+        <v>23.7109375</v>
       </c>
       <c r="AH14" t="n">
-        <v>544028.7681883164</v>
+        <v>668168.7145451778</v>
       </c>
     </row>
     <row r="15">
@@ -19253,28 +19253,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>436.2073503915583</v>
+        <v>536.5094238513187</v>
       </c>
       <c r="AB15" t="n">
-        <v>596.8381409158493</v>
+        <v>734.0758628386725</v>
       </c>
       <c r="AC15" t="n">
-        <v>539.8767464144316</v>
+        <v>664.016692771293</v>
       </c>
       <c r="AD15" t="n">
-        <v>436207.3503915583</v>
+        <v>536509.4238513188</v>
       </c>
       <c r="AE15" t="n">
-        <v>596838.1409158492</v>
+        <v>734075.8628386725</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.338110463966097e-06</v>
+        <v>1.96761446800023e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>24</v>
+        <v>23.72395833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>539876.7464144316</v>
+        <v>664016.692771293</v>
       </c>
     </row>
     <row r="16">
@@ -19359,28 +19359,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>434.7939727445151</v>
+        <v>535.0960462042755</v>
       </c>
       <c r="AB16" t="n">
-        <v>594.9042952653436</v>
+        <v>732.1420171881667</v>
       </c>
       <c r="AC16" t="n">
-        <v>538.1274642786408</v>
+        <v>662.2674106355023</v>
       </c>
       <c r="AD16" t="n">
-        <v>434793.9727445152</v>
+        <v>535096.0462042755</v>
       </c>
       <c r="AE16" t="n">
-        <v>594904.2952653436</v>
+        <v>732142.0171881667</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.341254944335012e-06</v>
+        <v>1.972238245509512e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>24</v>
+        <v>23.65885416666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>538127.4642786408</v>
+        <v>662267.4106355023</v>
       </c>
     </row>
     <row r="17">
@@ -19465,28 +19465,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>435.4017218357626</v>
+        <v>535.703795295523</v>
       </c>
       <c r="AB17" t="n">
-        <v>595.735844383986</v>
+        <v>732.9735663068093</v>
       </c>
       <c r="AC17" t="n">
-        <v>538.8796515164865</v>
+        <v>663.0195978733481</v>
       </c>
       <c r="AD17" t="n">
-        <v>435401.7218357626</v>
+        <v>535703.795295523</v>
       </c>
       <c r="AE17" t="n">
-        <v>595735.844383986</v>
+        <v>732973.5663068093</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.341401199235892e-06</v>
+        <v>1.972453304928549e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>24</v>
+        <v>23.65885416666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>538879.6515164865</v>
+        <v>663019.597873348</v>
       </c>
     </row>
   </sheetData>
@@ -19762,28 +19762,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>924.7187070967332</v>
+        <v>1096.187929554173</v>
       </c>
       <c r="AB2" t="n">
-        <v>1265.240930759891</v>
+        <v>1499.852685614367</v>
       </c>
       <c r="AC2" t="n">
-        <v>1144.488112104966</v>
+        <v>1356.708850355797</v>
       </c>
       <c r="AD2" t="n">
-        <v>924718.7070967332</v>
+        <v>1096187.929554173</v>
       </c>
       <c r="AE2" t="n">
-        <v>1265240.930759891</v>
+        <v>1499852.685614367</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.068727044834877e-07</v>
+        <v>1.167361245225501e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.96875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1144488.112104966</v>
+        <v>1356708.850355797</v>
       </c>
     </row>
     <row r="3">
@@ -19868,28 +19868,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>671.3694570228994</v>
+        <v>808.5106986470231</v>
       </c>
       <c r="AB3" t="n">
-        <v>918.5973098287905</v>
+        <v>1106.240006863492</v>
       </c>
       <c r="AC3" t="n">
-        <v>830.9276718381518</v>
+        <v>1000.662013226041</v>
       </c>
       <c r="AD3" t="n">
-        <v>671369.4570228994</v>
+        <v>808510.6986470231</v>
       </c>
       <c r="AE3" t="n">
-        <v>918597.3098287905</v>
+        <v>1106240.006863492</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.029001508444198e-06</v>
+        <v>1.488731091734335e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>830927.6718381518</v>
+        <v>1000662.013226041</v>
       </c>
     </row>
     <row r="4">
@@ -19974,28 +19974,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>605.7125506395728</v>
+        <v>725.6898913555891</v>
       </c>
       <c r="AB4" t="n">
-        <v>828.7626339368438</v>
+        <v>992.9209245312064</v>
       </c>
       <c r="AC4" t="n">
-        <v>749.6666913295728</v>
+        <v>898.1579450672175</v>
       </c>
       <c r="AD4" t="n">
-        <v>605712.5506395728</v>
+        <v>725689.8913555891</v>
       </c>
       <c r="AE4" t="n">
-        <v>828762.6339368438</v>
+        <v>992920.9245312064</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.117137775750291e-06</v>
+        <v>1.616244220112906e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>749666.6913295728</v>
+        <v>898157.9450672175</v>
       </c>
     </row>
     <row r="5">
@@ -20080,28 +20080,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>575.650921010995</v>
+        <v>687.1316073732538</v>
       </c>
       <c r="AB5" t="n">
-        <v>787.6309860535247</v>
+        <v>940.1637793151415</v>
       </c>
       <c r="AC5" t="n">
-        <v>712.4605901916074</v>
+        <v>850.4358677454555</v>
       </c>
       <c r="AD5" t="n">
-        <v>575650.9210109951</v>
+        <v>687131.6073732538</v>
       </c>
       <c r="AE5" t="n">
-        <v>787630.9860535247</v>
+        <v>940163.7793151415</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.16125296560585e-06</v>
+        <v>1.680068863922255e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.38020833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>712460.5901916074</v>
+        <v>850435.8677454556</v>
       </c>
     </row>
     <row r="6">
@@ -20186,28 +20186,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>554.6092333083459</v>
+        <v>674.5864845158111</v>
       </c>
       <c r="AB6" t="n">
-        <v>758.8408206450146</v>
+        <v>922.9989887698288</v>
       </c>
       <c r="AC6" t="n">
-        <v>686.4181177624345</v>
+        <v>834.9092607188525</v>
       </c>
       <c r="AD6" t="n">
-        <v>554609.2333083459</v>
+        <v>674586.4845158111</v>
       </c>
       <c r="AE6" t="n">
-        <v>758840.8206450145</v>
+        <v>922998.9887698288</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.187486798506623e-06</v>
+        <v>1.718023252107548e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.79427083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>686418.1177624344</v>
+        <v>834909.2607188525</v>
       </c>
     </row>
     <row r="7">
@@ -20292,28 +20292,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>544.233755910797</v>
+        <v>655.629101418484</v>
       </c>
       <c r="AB7" t="n">
-        <v>744.6446347359305</v>
+        <v>897.0606608753495</v>
       </c>
       <c r="AC7" t="n">
-        <v>673.5767959120413</v>
+        <v>811.4464504339505</v>
       </c>
       <c r="AD7" t="n">
-        <v>544233.7559107969</v>
+        <v>655629.101418484</v>
       </c>
       <c r="AE7" t="n">
-        <v>744644.6347359305</v>
+        <v>897060.6608753495</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.209509101282518e-06</v>
+        <v>1.749884514297175e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.32552083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>673576.7959120413</v>
+        <v>811446.4504339505</v>
       </c>
     </row>
     <row r="8">
@@ -20398,28 +20398,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>537.4913342104991</v>
+        <v>640.4753662190002</v>
       </c>
       <c r="AB8" t="n">
-        <v>735.4193559109308</v>
+        <v>876.3266518398018</v>
       </c>
       <c r="AC8" t="n">
-        <v>665.2319647503394</v>
+        <v>792.6912661203909</v>
       </c>
       <c r="AD8" t="n">
-        <v>537491.3342104991</v>
+        <v>640475.3662190002</v>
       </c>
       <c r="AE8" t="n">
-        <v>735419.3559109308</v>
+        <v>876326.6518398018</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.223202456213683e-06</v>
+        <v>1.769695683735597e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.05208333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>665231.9647503394</v>
+        <v>792691.2661203909</v>
       </c>
     </row>
     <row r="9">
@@ -20504,28 +20504,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>522.5658021025624</v>
+        <v>634.04639895627</v>
       </c>
       <c r="AB9" t="n">
-        <v>714.9975844128475</v>
+        <v>867.530255204916</v>
       </c>
       <c r="AC9" t="n">
-        <v>646.759218461897</v>
+        <v>784.7343852345184</v>
       </c>
       <c r="AD9" t="n">
-        <v>522565.8021025624</v>
+        <v>634046.39895627</v>
       </c>
       <c r="AE9" t="n">
-        <v>714997.5844128474</v>
+        <v>867530.255204916</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.235225315955651e-06</v>
+        <v>1.787090026661771e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.8046875</v>
       </c>
       <c r="AH9" t="n">
-        <v>646759.218461897</v>
+        <v>784734.3852345184</v>
       </c>
     </row>
     <row r="10">
@@ -20610,28 +20610,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>518.0790761156289</v>
+        <v>629.5596729693366</v>
       </c>
       <c r="AB10" t="n">
-        <v>708.8586479771444</v>
+        <v>861.3913187692131</v>
       </c>
       <c r="AC10" t="n">
-        <v>641.2061735035661</v>
+        <v>779.1813402761875</v>
       </c>
       <c r="AD10" t="n">
-        <v>518079.0761156289</v>
+        <v>629559.6729693366</v>
       </c>
       <c r="AE10" t="n">
-        <v>708858.6479771445</v>
+        <v>861391.318769213</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.242966061268973e-06</v>
+        <v>1.798289124162185e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.6484375</v>
       </c>
       <c r="AH10" t="n">
-        <v>641206.1735035661</v>
+        <v>779181.3402761875</v>
       </c>
     </row>
     <row r="11">
@@ -20716,28 +20716,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>514.5998388787106</v>
+        <v>626.0804357324182</v>
       </c>
       <c r="AB11" t="n">
-        <v>704.0982020964788</v>
+        <v>856.6308728885473</v>
       </c>
       <c r="AC11" t="n">
-        <v>636.9000578964233</v>
+        <v>774.8752246690448</v>
       </c>
       <c r="AD11" t="n">
-        <v>514599.8388787105</v>
+        <v>626080.4357324182</v>
       </c>
       <c r="AE11" t="n">
-        <v>704098.2020964788</v>
+        <v>856630.8728885473</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.249271592405661e-06</v>
+        <v>1.807411793250668e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>24.51822916666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>636900.0578964233</v>
+        <v>774875.2246690447</v>
       </c>
     </row>
     <row r="12">
@@ -20822,28 +20822,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>510.981937411692</v>
+        <v>622.2919420648075</v>
       </c>
       <c r="AB12" t="n">
-        <v>699.1480296987563</v>
+        <v>851.4472887159777</v>
       </c>
       <c r="AC12" t="n">
-        <v>632.4223230047288</v>
+        <v>770.1863544946992</v>
       </c>
       <c r="AD12" t="n">
-        <v>510981.937411692</v>
+        <v>622291.9420648075</v>
       </c>
       <c r="AE12" t="n">
-        <v>699148.0296987563</v>
+        <v>851447.2887159777</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.253506650631795e-06</v>
+        <v>1.813538959056366e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>25</v>
+        <v>24.44010416666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>632422.3230047288</v>
+        <v>770186.3544946993</v>
       </c>
     </row>
     <row r="13">
@@ -20928,28 +20928,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>506.7059417937129</v>
+        <v>609.6046329476426</v>
       </c>
       <c r="AB13" t="n">
-        <v>693.2974238506243</v>
+        <v>834.0879526572977</v>
       </c>
       <c r="AC13" t="n">
-        <v>627.1300907673657</v>
+        <v>754.4837691054785</v>
       </c>
       <c r="AD13" t="n">
-        <v>506705.9417937129</v>
+        <v>609604.6329476426</v>
       </c>
       <c r="AE13" t="n">
-        <v>693297.4238506244</v>
+        <v>834087.9526572977</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.261365036451399e-06</v>
+        <v>1.824908255606938e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>24.28385416666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>627130.0907673656</v>
+        <v>754483.7691054784</v>
       </c>
     </row>
     <row r="14">
@@ -21034,28 +21034,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>502.9659765947665</v>
+        <v>605.8646677486962</v>
       </c>
       <c r="AB14" t="n">
-        <v>688.180238469806</v>
+        <v>828.9707672764791</v>
       </c>
       <c r="AC14" t="n">
-        <v>622.501282377278</v>
+        <v>749.8549607153906</v>
       </c>
       <c r="AD14" t="n">
-        <v>502965.9765947665</v>
+        <v>605864.6677486962</v>
       </c>
       <c r="AE14" t="n">
-        <v>688180.238469806</v>
+        <v>828970.7672764792</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.265694207082557e-06</v>
+        <v>1.831171580652762e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>24.20572916666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>622501.282377278</v>
+        <v>749854.9607153906</v>
       </c>
     </row>
     <row r="15">
@@ -21140,28 +21140,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>500.2508217998781</v>
+        <v>603.1495129538076</v>
       </c>
       <c r="AB15" t="n">
-        <v>684.4652438952642</v>
+        <v>825.2557727019373</v>
       </c>
       <c r="AC15" t="n">
-        <v>619.1408416709027</v>
+        <v>746.4945200090153</v>
       </c>
       <c r="AD15" t="n">
-        <v>500250.821799878</v>
+        <v>603149.5129538076</v>
       </c>
       <c r="AE15" t="n">
-        <v>684465.2438952641</v>
+        <v>825255.7727019374</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.26891755695467e-06</v>
+        <v>1.835835034627098e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>24.140625</v>
       </c>
       <c r="AH15" t="n">
-        <v>619140.8416709027</v>
+        <v>746494.5200090153</v>
       </c>
     </row>
     <row r="16">
@@ -21246,28 +21246,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>498.0360289777842</v>
+        <v>600.9347201317138</v>
       </c>
       <c r="AB16" t="n">
-        <v>681.4348666463119</v>
+        <v>822.2253954529853</v>
       </c>
       <c r="AC16" t="n">
-        <v>616.3996793734294</v>
+        <v>743.7533577115421</v>
       </c>
       <c r="AD16" t="n">
-        <v>498036.0289777842</v>
+        <v>600934.7201317138</v>
       </c>
       <c r="AE16" t="n">
-        <v>681434.8666463119</v>
+        <v>822225.3954529853</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.269929265308691e-06</v>
+        <v>1.837298746458459e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>25</v>
+        <v>24.12760416666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>616399.6793734294</v>
+        <v>743753.357711542</v>
       </c>
     </row>
     <row r="17">
@@ -21352,28 +21352,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>495.7334878876286</v>
+        <v>598.6321790415582</v>
       </c>
       <c r="AB17" t="n">
-        <v>678.2844283458173</v>
+        <v>819.0749571524906</v>
       </c>
       <c r="AC17" t="n">
-        <v>613.5499144826661</v>
+        <v>740.9035928207787</v>
       </c>
       <c r="AD17" t="n">
-        <v>495733.4878876286</v>
+        <v>598632.1790415582</v>
       </c>
       <c r="AE17" t="n">
-        <v>678284.4283458174</v>
+        <v>819074.9571524906</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.273693761509699e-06</v>
+        <v>1.842745116063524e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>25</v>
+        <v>24.04947916666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>613549.9144826661</v>
+        <v>740903.5928207787</v>
       </c>
     </row>
     <row r="18">
@@ -21458,28 +21458,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>483.0233447425035</v>
+        <v>594.4186007416397</v>
       </c>
       <c r="AB18" t="n">
-        <v>660.8938497627163</v>
+        <v>813.3097534325871</v>
       </c>
       <c r="AC18" t="n">
-        <v>597.8190683117057</v>
+        <v>735.6886120523884</v>
       </c>
       <c r="AD18" t="n">
-        <v>483023.3447425035</v>
+        <v>594418.6007416397</v>
       </c>
       <c r="AE18" t="n">
-        <v>660893.8497627163</v>
+        <v>813309.753432587</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.277458257710707e-06</v>
+        <v>1.848191485668588e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>24</v>
+        <v>23.984375</v>
       </c>
       <c r="AH18" t="n">
-        <v>597819.0683117057</v>
+        <v>735688.6120523884</v>
       </c>
     </row>
     <row r="19">
@@ -21564,28 +21564,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>482.6916408640846</v>
+        <v>594.0868968632208</v>
       </c>
       <c r="AB19" t="n">
-        <v>660.4399978825211</v>
+        <v>812.855901552392</v>
       </c>
       <c r="AC19" t="n">
-        <v>597.4085314179713</v>
+        <v>735.278075158654</v>
       </c>
       <c r="AD19" t="n">
-        <v>482691.6408640846</v>
+        <v>594086.8968632207</v>
       </c>
       <c r="AE19" t="n">
-        <v>660439.9978825211</v>
+        <v>812855.9015523919</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.277152392394375e-06</v>
+        <v>1.847748968138177e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>24</v>
+        <v>23.984375</v>
       </c>
       <c r="AH19" t="n">
-        <v>597408.5314179712</v>
+        <v>735278.075158654</v>
       </c>
     </row>
     <row r="20">
@@ -21670,28 +21670,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>478.2228594601979</v>
+        <v>589.618115459334</v>
       </c>
       <c r="AB20" t="n">
-        <v>654.3256140170018</v>
+        <v>806.7415176868725</v>
       </c>
       <c r="AC20" t="n">
-        <v>591.8776957669854</v>
+        <v>729.7472395076682</v>
       </c>
       <c r="AD20" t="n">
-        <v>478222.8594601979</v>
+        <v>589618.115459334</v>
       </c>
       <c r="AE20" t="n">
-        <v>654325.6140170018</v>
+        <v>806741.5176868725</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.281011001000408e-06</v>
+        <v>1.853331496983368e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>24</v>
+        <v>23.91927083333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>591877.6957669854</v>
+        <v>729747.2395076682</v>
       </c>
     </row>
     <row r="21">
@@ -21776,28 +21776,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>477.2463735613993</v>
+        <v>588.6416295605354</v>
       </c>
       <c r="AB21" t="n">
-        <v>652.9895429307481</v>
+        <v>805.405446600619</v>
       </c>
       <c r="AC21" t="n">
-        <v>590.6691374300165</v>
+        <v>728.5386811706991</v>
       </c>
       <c r="AD21" t="n">
-        <v>477246.3735613993</v>
+        <v>588641.6295605354</v>
       </c>
       <c r="AE21" t="n">
-        <v>652989.5429307482</v>
+        <v>805405.446600619</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.281552147329302e-06</v>
+        <v>1.854114412614096e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>24</v>
+        <v>23.90625</v>
       </c>
       <c r="AH21" t="n">
-        <v>590669.1374300164</v>
+        <v>728538.6811706991</v>
       </c>
     </row>
     <row r="22">
@@ -21882,28 +21882,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>474.1985933575154</v>
+        <v>585.5938493566515</v>
       </c>
       <c r="AB22" t="n">
-        <v>648.8194355972214</v>
+        <v>801.2353392670921</v>
       </c>
       <c r="AC22" t="n">
-        <v>586.8970192876189</v>
+        <v>724.7665630283016</v>
       </c>
       <c r="AD22" t="n">
-        <v>474198.5933575154</v>
+        <v>585593.8493566515</v>
       </c>
       <c r="AE22" t="n">
-        <v>648819.4355972214</v>
+        <v>801235.3392670921</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.280799248089101e-06</v>
+        <v>1.853025138693083e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>24</v>
+        <v>23.91927083333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>586897.0192876189</v>
+        <v>724766.5630283016</v>
       </c>
     </row>
     <row r="23">
@@ -21988,28 +21988,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>472.4150247760878</v>
+        <v>583.810280775224</v>
       </c>
       <c r="AB23" t="n">
-        <v>646.3790783786196</v>
+        <v>798.7949820484903</v>
       </c>
       <c r="AC23" t="n">
-        <v>584.6895663368977</v>
+        <v>722.5591100775804</v>
       </c>
       <c r="AD23" t="n">
-        <v>472415.0247760878</v>
+        <v>583810.280775224</v>
       </c>
       <c r="AE23" t="n">
-        <v>646379.0783786196</v>
+        <v>798794.9820484903</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.284775497201415e-06</v>
+        <v>1.858777866588432e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>24</v>
+        <v>23.84114583333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>584689.5663368977</v>
+        <v>722559.1100775804</v>
       </c>
     </row>
     <row r="24">
@@ -22094,28 +22094,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>473.4691596016712</v>
+        <v>584.8644156008073</v>
       </c>
       <c r="AB24" t="n">
-        <v>647.8213921521291</v>
+        <v>800.2372958219997</v>
       </c>
       <c r="AC24" t="n">
-        <v>585.9942277081634</v>
+        <v>723.8637714488463</v>
       </c>
       <c r="AD24" t="n">
-        <v>473469.1596016712</v>
+        <v>584864.4156008073</v>
       </c>
       <c r="AE24" t="n">
-        <v>647821.3921521291</v>
+        <v>800237.2958219998</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.284610800492621e-06</v>
+        <v>1.858539587918211e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>24</v>
+        <v>23.85416666666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>585994.2277081634</v>
+        <v>723863.7714488462</v>
       </c>
     </row>
   </sheetData>
@@ -22391,28 +22391,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>591.4719556777148</v>
+        <v>720.9195625543261</v>
       </c>
       <c r="AB2" t="n">
-        <v>809.2780236593196</v>
+        <v>986.3939502132647</v>
       </c>
       <c r="AC2" t="n">
-        <v>732.0416649101135</v>
+        <v>892.253896017514</v>
       </c>
       <c r="AD2" t="n">
-        <v>591471.9556777149</v>
+        <v>720919.5625543261</v>
       </c>
       <c r="AE2" t="n">
-        <v>809278.0236593196</v>
+        <v>986393.9502132647</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.08499395731888e-06</v>
+        <v>1.629318732026506e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>732041.6649101134</v>
+        <v>892253.8960175139</v>
       </c>
     </row>
     <row r="3">
@@ -22497,28 +22497,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>485.594802512372</v>
+        <v>590.7550711979376</v>
       </c>
       <c r="AB3" t="n">
-        <v>664.4122317281606</v>
+        <v>808.2971506873772</v>
       </c>
       <c r="AC3" t="n">
-        <v>601.0016608404483</v>
+        <v>731.1544050779491</v>
       </c>
       <c r="AD3" t="n">
-        <v>485594.802512372</v>
+        <v>590755.0711979376</v>
       </c>
       <c r="AE3" t="n">
-        <v>664412.2317281605</v>
+        <v>808297.1506873772</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.258538010267787e-06</v>
+        <v>1.889927166197123e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>601001.6608404482</v>
+        <v>731154.4050779492</v>
       </c>
     </row>
     <row r="4">
@@ -22603,28 +22603,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>455.608802455275</v>
+        <v>560.683730286269</v>
       </c>
       <c r="AB4" t="n">
-        <v>623.3840635610827</v>
+        <v>767.1522153981016</v>
       </c>
       <c r="AC4" t="n">
-        <v>563.8891634598406</v>
+        <v>693.9362846654027</v>
       </c>
       <c r="AD4" t="n">
-        <v>455608.802455275</v>
+        <v>560683.730286269</v>
       </c>
       <c r="AE4" t="n">
-        <v>623384.0635610827</v>
+        <v>767152.2153981016</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.319118069818741e-06</v>
+        <v>1.980899309542102e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.13020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>563889.1634598406</v>
+        <v>693936.2846654027</v>
       </c>
     </row>
     <row r="5">
@@ -22709,28 +22709,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>434.4656705108961</v>
+        <v>539.4552574873185</v>
       </c>
       <c r="AB5" t="n">
-        <v>594.4550976656336</v>
+        <v>738.1064823804548</v>
       </c>
       <c r="AC5" t="n">
-        <v>537.7211374673946</v>
+        <v>667.6626356410179</v>
       </c>
       <c r="AD5" t="n">
-        <v>434465.6705108961</v>
+        <v>539455.2574873185</v>
       </c>
       <c r="AE5" t="n">
-        <v>594455.0976656337</v>
+        <v>738106.4823804549</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.354677037546758e-06</v>
+        <v>2.034297664270226e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.46614583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>537721.1374673946</v>
+        <v>667662.6356410179</v>
       </c>
     </row>
     <row r="6">
@@ -22815,28 +22815,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>426.6708686734797</v>
+        <v>523.7353281258463</v>
       </c>
       <c r="AB6" t="n">
-        <v>583.7899059092936</v>
+        <v>716.5977815137512</v>
       </c>
       <c r="AC6" t="n">
-        <v>528.0738166435888</v>
+        <v>648.2066949973812</v>
       </c>
       <c r="AD6" t="n">
-        <v>426670.8686734797</v>
+        <v>523735.3281258463</v>
       </c>
       <c r="AE6" t="n">
-        <v>583789.9059092936</v>
+        <v>716597.7815137513</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.372952870638181e-06</v>
+        <v>2.061742201632283e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.140625</v>
       </c>
       <c r="AH6" t="n">
-        <v>528073.8166435888</v>
+        <v>648206.6949973812</v>
       </c>
     </row>
     <row r="7">
@@ -22921,28 +22921,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>411.8426185115294</v>
+        <v>516.9174568339722</v>
       </c>
       <c r="AB7" t="n">
-        <v>563.5012398614855</v>
+        <v>707.2692692289561</v>
       </c>
       <c r="AC7" t="n">
-        <v>509.7214724080619</v>
+        <v>639.7684828323976</v>
       </c>
       <c r="AD7" t="n">
-        <v>411842.6185115294</v>
+        <v>516917.4568339722</v>
       </c>
       <c r="AE7" t="n">
-        <v>563501.2398614854</v>
+        <v>707269.2692289561</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.386112488616266e-06</v>
+        <v>2.081503797476549e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.90625</v>
       </c>
       <c r="AH7" t="n">
-        <v>509721.4724080618</v>
+        <v>639768.4828323976</v>
       </c>
     </row>
     <row r="8">
@@ -23027,28 +23027,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>406.1982621272396</v>
+        <v>503.3479729256268</v>
       </c>
       <c r="AB8" t="n">
-        <v>555.7783824450709</v>
+        <v>688.7029027021779</v>
       </c>
       <c r="AC8" t="n">
-        <v>502.7356736643715</v>
+        <v>622.9740642688761</v>
       </c>
       <c r="AD8" t="n">
-        <v>406198.2621272396</v>
+        <v>503347.9729256268</v>
       </c>
       <c r="AE8" t="n">
-        <v>555778.3824450709</v>
+        <v>688702.9027021779</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.395301312775045e-06</v>
+        <v>2.095302513336859e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.75</v>
       </c>
       <c r="AH8" t="n">
-        <v>502735.6736643715</v>
+        <v>622974.0642688761</v>
       </c>
     </row>
     <row r="9">
@@ -23133,28 +23133,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>400.6001459945374</v>
+        <v>497.7498567929246</v>
       </c>
       <c r="AB9" t="n">
-        <v>548.1187929808543</v>
+        <v>681.0433132379613</v>
       </c>
       <c r="AC9" t="n">
-        <v>495.8071046683183</v>
+        <v>616.045495272823</v>
       </c>
       <c r="AD9" t="n">
-        <v>400600.1459945374</v>
+        <v>497749.8567929246</v>
       </c>
       <c r="AE9" t="n">
-        <v>548118.7929808543</v>
+        <v>681043.3132379614</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.403293808026725e-06</v>
+        <v>2.107304720484054e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.61979166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>495807.1046683184</v>
+        <v>616045.495272823</v>
       </c>
     </row>
     <row r="10">
@@ -23239,28 +23239,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>395.3148690244097</v>
+        <v>492.464579822797</v>
       </c>
       <c r="AB10" t="n">
-        <v>540.8872438603621</v>
+        <v>673.8117641174691</v>
       </c>
       <c r="AC10" t="n">
-        <v>489.2657244463429</v>
+        <v>609.5041150508475</v>
       </c>
       <c r="AD10" t="n">
-        <v>395314.8690244097</v>
+        <v>492464.579822797</v>
       </c>
       <c r="AE10" t="n">
-        <v>540887.2438603621</v>
+        <v>673811.7641174691</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.410039066758239e-06</v>
+        <v>2.117433971738852e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.50260416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>489265.7244463429</v>
+        <v>609504.1150508475</v>
       </c>
     </row>
     <row r="11">
@@ -23345,28 +23345,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>393.8199369394854</v>
+        <v>490.7990555372804</v>
       </c>
       <c r="AB11" t="n">
-        <v>538.8418118300195</v>
+        <v>671.5329203122797</v>
       </c>
       <c r="AC11" t="n">
-        <v>487.4155055781945</v>
+        <v>607.442760900048</v>
       </c>
       <c r="AD11" t="n">
-        <v>393819.9369394854</v>
+        <v>490799.0555372804</v>
       </c>
       <c r="AE11" t="n">
-        <v>538841.8118300196</v>
+        <v>671532.9203122796</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.412100825087494e-06</v>
+        <v>2.120530082499752e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23.4765625</v>
       </c>
       <c r="AH11" t="n">
-        <v>487415.5055781945</v>
+        <v>607442.7609000481</v>
       </c>
     </row>
   </sheetData>
@@ -23642,28 +23642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>488.4707030117176</v>
+        <v>598.4001395548231</v>
       </c>
       <c r="AB2" t="n">
-        <v>668.3471656671409</v>
+        <v>818.7574704898801</v>
       </c>
       <c r="AC2" t="n">
-        <v>604.5610502070065</v>
+        <v>740.6164066396524</v>
       </c>
       <c r="AD2" t="n">
-        <v>488470.7030117176</v>
+        <v>598400.1395548232</v>
       </c>
       <c r="AE2" t="n">
-        <v>668347.1656671409</v>
+        <v>818757.4704898801</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.223799975450885e-06</v>
+        <v>1.876999233629332e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.21614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>604561.0502070065</v>
+        <v>740616.4066396523</v>
       </c>
     </row>
     <row r="3">
@@ -23748,28 +23748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>417.411972573714</v>
+        <v>519.3978762701674</v>
       </c>
       <c r="AB3" t="n">
-        <v>571.1214757919267</v>
+        <v>710.6630885299408</v>
       </c>
       <c r="AC3" t="n">
-        <v>516.6144437163703</v>
+        <v>642.8384007825516</v>
       </c>
       <c r="AD3" t="n">
-        <v>417411.972573714</v>
+        <v>519397.8762701674</v>
       </c>
       <c r="AE3" t="n">
-        <v>571121.4757919267</v>
+        <v>710663.0885299407</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.370318708970722e-06</v>
+        <v>2.10172186481565e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.1953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>516614.4437163702</v>
+        <v>642838.4007825516</v>
       </c>
     </row>
     <row r="4">
@@ -23854,28 +23854,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>393.1734554365985</v>
+        <v>487.3865079955432</v>
       </c>
       <c r="AB4" t="n">
-        <v>537.9572673170188</v>
+        <v>666.8637222147026</v>
       </c>
       <c r="AC4" t="n">
-        <v>486.6153807520484</v>
+        <v>603.2191845156432</v>
       </c>
       <c r="AD4" t="n">
-        <v>393173.4554365985</v>
+        <v>487386.5079955432</v>
       </c>
       <c r="AE4" t="n">
-        <v>537957.2673170188</v>
+        <v>666863.7222147026</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.421252926685454e-06</v>
+        <v>2.179842055642453e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>486615.3807520484</v>
+        <v>603219.1845156432</v>
       </c>
     </row>
     <row r="5">
@@ -23960,28 +23960,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>374.3527646678574</v>
+        <v>476.3385788557598</v>
       </c>
       <c r="AB5" t="n">
-        <v>512.2059678969507</v>
+        <v>651.7474581654162</v>
       </c>
       <c r="AC5" t="n">
-        <v>463.321749206456</v>
+        <v>589.5455954914107</v>
       </c>
       <c r="AD5" t="n">
-        <v>374352.7646678574</v>
+        <v>476338.5788557598</v>
       </c>
       <c r="AE5" t="n">
-        <v>512205.9678969507</v>
+        <v>651747.4581654163</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.450524856074867e-06</v>
+        <v>2.224737782176962e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.80208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>463321.749206456</v>
+        <v>589545.5954914107</v>
       </c>
     </row>
     <row r="6">
@@ -24066,28 +24066,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>366.6274535869107</v>
+        <v>460.9257574918759</v>
       </c>
       <c r="AB6" t="n">
-        <v>501.6358564593282</v>
+        <v>630.6589560096613</v>
       </c>
       <c r="AC6" t="n">
-        <v>453.7604343691956</v>
+        <v>570.4697503835025</v>
       </c>
       <c r="AD6" t="n">
-        <v>366627.4535869107</v>
+        <v>460925.7574918759</v>
       </c>
       <c r="AE6" t="n">
-        <v>501635.8564593282</v>
+        <v>630658.9560096613</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.466619114353286e-06</v>
+        <v>2.249422298487149e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.54166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>453760.4343691956</v>
+        <v>570469.7503835026</v>
       </c>
     </row>
     <row r="7">
@@ -24172,28 +24172,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>361.4437444284461</v>
+        <v>455.571456132819</v>
       </c>
       <c r="AB7" t="n">
-        <v>494.5432768996089</v>
+        <v>623.3329646750949</v>
       </c>
       <c r="AC7" t="n">
-        <v>447.3447606481579</v>
+        <v>563.8429413798139</v>
       </c>
       <c r="AD7" t="n">
-        <v>361443.7444284461</v>
+        <v>455571.4561328191</v>
       </c>
       <c r="AE7" t="n">
-        <v>494543.2768996089</v>
+        <v>623332.9646750949</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.473990125558229e-06</v>
+        <v>2.260727562958702e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.42447916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>447344.7606481579</v>
+        <v>563842.9413798138</v>
       </c>
     </row>
     <row r="8">
@@ -24278,28 +24278,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>362.3843317161384</v>
+        <v>456.5120434205114</v>
       </c>
       <c r="AB8" t="n">
-        <v>495.8302299224119</v>
+        <v>624.6199176978981</v>
       </c>
       <c r="AC8" t="n">
-        <v>448.5088886807147</v>
+        <v>565.0070694123705</v>
       </c>
       <c r="AD8" t="n">
-        <v>362384.3317161384</v>
+        <v>456512.0434205114</v>
       </c>
       <c r="AE8" t="n">
-        <v>495830.229922412</v>
+        <v>624619.9176978981</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.474865101708456e-06</v>
+        <v>2.262069554784462e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.41145833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>448508.8886807146</v>
+        <v>565007.0694123704</v>
       </c>
     </row>
   </sheetData>
@@ -45540,28 +45540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>415.9928081910506</v>
+        <v>523.2631085977588</v>
       </c>
       <c r="AB2" t="n">
-        <v>569.1797124744528</v>
+        <v>715.9516699225665</v>
       </c>
       <c r="AC2" t="n">
-        <v>514.8579995646342</v>
+        <v>647.6222473896357</v>
       </c>
       <c r="AD2" t="n">
-        <v>415992.8081910507</v>
+        <v>523263.1085977588</v>
       </c>
       <c r="AE2" t="n">
-        <v>569179.7124744528</v>
+        <v>715951.6699225665</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.332669518310502e-06</v>
+        <v>2.082269834966753e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>514857.9995646342</v>
+        <v>647622.2473896358</v>
       </c>
     </row>
     <row r="3">
@@ -45646,28 +45646,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>365.5594861820298</v>
+        <v>464.9909342980543</v>
       </c>
       <c r="AB3" t="n">
-        <v>500.1746163405736</v>
+        <v>636.2211102588179</v>
       </c>
       <c r="AC3" t="n">
-        <v>452.4386529565115</v>
+        <v>575.5010604376522</v>
       </c>
       <c r="AD3" t="n">
-        <v>365559.4861820298</v>
+        <v>464990.9342980543</v>
       </c>
       <c r="AE3" t="n">
-        <v>500174.6163405735</v>
+        <v>636221.1102588179</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.461800334401015e-06</v>
+        <v>2.284034187955628e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.42708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>452438.6529565115</v>
+        <v>575501.0604376522</v>
       </c>
     </row>
     <row r="4">
@@ -45752,28 +45752,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>343.9411438347416</v>
+        <v>435.9602649158385</v>
       </c>
       <c r="AB4" t="n">
-        <v>470.5954466070606</v>
+        <v>596.5000676673275</v>
       </c>
       <c r="AC4" t="n">
-        <v>425.6824776677395</v>
+        <v>539.5709384022599</v>
       </c>
       <c r="AD4" t="n">
-        <v>343941.1438347416</v>
+        <v>435960.2649158385</v>
       </c>
       <c r="AE4" t="n">
-        <v>470595.4466070606</v>
+        <v>596500.0676673275</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.505081648715125e-06</v>
+        <v>2.351660387831678e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.72395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>425682.4776677395</v>
+        <v>539570.93840226</v>
       </c>
     </row>
     <row r="5">
@@ -45858,28 +45858,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>336.6655156743867</v>
+        <v>428.5140445548914</v>
       </c>
       <c r="AB5" t="n">
-        <v>460.6406111800021</v>
+        <v>586.3118204654219</v>
       </c>
       <c r="AC5" t="n">
-        <v>416.6777177621402</v>
+        <v>530.3550432140096</v>
       </c>
       <c r="AD5" t="n">
-        <v>336665.5156743866</v>
+        <v>428514.0445548914</v>
       </c>
       <c r="AE5" t="n">
-        <v>460640.611180002</v>
+        <v>586311.8204654219</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.52118185879268e-06</v>
+        <v>2.376816648495329e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.4765625</v>
       </c>
       <c r="AH5" t="n">
-        <v>416677.7177621402</v>
+        <v>530355.0432140096</v>
       </c>
     </row>
     <row r="6">
@@ -45964,28 +45964,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>337.7509124664397</v>
+        <v>429.5994413469444</v>
       </c>
       <c r="AB6" t="n">
-        <v>462.125698955216</v>
+        <v>587.7969082406358</v>
       </c>
       <c r="AC6" t="n">
-        <v>418.0210708444215</v>
+        <v>531.6983962962909</v>
       </c>
       <c r="AD6" t="n">
-        <v>337750.9124664397</v>
+        <v>429599.4413469444</v>
       </c>
       <c r="AE6" t="n">
-        <v>462125.698955216</v>
+        <v>587796.9082406359</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.521977269512014e-06</v>
+        <v>2.378059462054522e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.46354166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>418021.0708444215</v>
+        <v>531698.3962962909</v>
       </c>
     </row>
   </sheetData>
@@ -46261,28 +46261,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>300.9715114097461</v>
+        <v>395.5084084237234</v>
       </c>
       <c r="AB2" t="n">
-        <v>411.8024998367901</v>
+        <v>541.1520530048585</v>
       </c>
       <c r="AC2" t="n">
-        <v>372.5006472208045</v>
+        <v>489.5052605777507</v>
       </c>
       <c r="AD2" t="n">
-        <v>300971.5114097461</v>
+        <v>395508.4084237234</v>
       </c>
       <c r="AE2" t="n">
-        <v>411802.4998367901</v>
+        <v>541152.0530048585</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.569104876310996e-06</v>
+        <v>2.557132767247993e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.42708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>372500.6472208045</v>
+        <v>489505.2605777507</v>
       </c>
     </row>
     <row r="3">
@@ -46367,28 +46367,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>287.1172115240712</v>
+        <v>381.739359884069</v>
       </c>
       <c r="AB3" t="n">
-        <v>392.8464355246356</v>
+        <v>522.3126333453534</v>
       </c>
       <c r="AC3" t="n">
-        <v>355.3537230815988</v>
+        <v>472.4638486892572</v>
       </c>
       <c r="AD3" t="n">
-        <v>287117.2115240712</v>
+        <v>381739.359884069</v>
       </c>
       <c r="AE3" t="n">
-        <v>392846.4355246357</v>
+        <v>522312.6333453534</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.603047540095664e-06</v>
+        <v>2.612448316311555e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.90625</v>
       </c>
       <c r="AH3" t="n">
-        <v>355353.7230815988</v>
+        <v>472463.8486892572</v>
       </c>
     </row>
   </sheetData>
@@ -46664,28 +46664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>710.9647302821267</v>
+        <v>851.8464639482947</v>
       </c>
       <c r="AB2" t="n">
-        <v>972.773309522237</v>
+        <v>1165.533912787726</v>
       </c>
       <c r="AC2" t="n">
-        <v>879.9331901573488</v>
+        <v>1054.296991988386</v>
       </c>
       <c r="AD2" t="n">
-        <v>710964.7302821267</v>
+        <v>851846.4639482948</v>
       </c>
       <c r="AE2" t="n">
-        <v>972773.309522237</v>
+        <v>1165533.912787726</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.67114367248156e-07</v>
+        <v>1.428796202188257e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.15104166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>879933.1901573488</v>
+        <v>1054296.991988386</v>
       </c>
     </row>
     <row r="3">
@@ -46770,28 +46770,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>553.0375575654181</v>
+        <v>669.1982965145151</v>
       </c>
       <c r="AB3" t="n">
-        <v>756.6903845561005</v>
+        <v>915.6266322363773</v>
       </c>
       <c r="AC3" t="n">
-        <v>684.4729162756904</v>
+        <v>828.2405115457861</v>
       </c>
       <c r="AD3" t="n">
-        <v>553037.5575654181</v>
+        <v>669198.2965145151</v>
       </c>
       <c r="AE3" t="n">
-        <v>756690.3845561005</v>
+        <v>915626.6322363773</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.162688955070353e-06</v>
+        <v>1.71773434413728e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.56510416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>684472.9162756904</v>
+        <v>828240.5115457862</v>
       </c>
     </row>
     <row r="4">
@@ -46876,28 +46876,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>506.1182096875736</v>
+        <v>622.108266927527</v>
       </c>
       <c r="AB4" t="n">
-        <v>692.493262854094</v>
+        <v>851.1959762899754</v>
       </c>
       <c r="AC4" t="n">
-        <v>626.4026777676972</v>
+        <v>769.9590269739153</v>
       </c>
       <c r="AD4" t="n">
-        <v>506118.2096875736</v>
+        <v>622108.266927527</v>
       </c>
       <c r="AE4" t="n">
-        <v>692493.262854094</v>
+        <v>851195.9762899755</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.234995420885281e-06</v>
+        <v>1.824558528792905e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.95052083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>626402.6777676973</v>
+        <v>769959.0269739153</v>
       </c>
     </row>
     <row r="5">
@@ -46982,28 +46982,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>490.7539912954022</v>
+        <v>598.4469424046855</v>
       </c>
       <c r="AB5" t="n">
-        <v>671.4712614284479</v>
+        <v>818.8215082138579</v>
       </c>
       <c r="AC5" t="n">
-        <v>607.3869866535503</v>
+        <v>740.6743326931311</v>
       </c>
       <c r="AD5" t="n">
-        <v>490753.9912954022</v>
+        <v>598446.9424046855</v>
       </c>
       <c r="AE5" t="n">
-        <v>671471.2614284479</v>
+        <v>818821.5082138579</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.272835066087033e-06</v>
+        <v>1.880462094273224e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.18229166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>607386.9866535503</v>
+        <v>740674.3326931311</v>
       </c>
     </row>
     <row r="6">
@@ -47088,28 +47088,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>472.8168887604154</v>
+        <v>580.5950912157192</v>
       </c>
       <c r="AB6" t="n">
-        <v>646.9289264109642</v>
+        <v>794.3958178490237</v>
       </c>
       <c r="AC6" t="n">
-        <v>585.1869376447519</v>
+        <v>718.5797959350449</v>
       </c>
       <c r="AD6" t="n">
-        <v>472816.8887604154</v>
+        <v>580595.0912157192</v>
       </c>
       <c r="AE6" t="n">
-        <v>646928.9264109642</v>
+        <v>794395.8178490237</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.296026312528185e-06</v>
+        <v>1.914724396604037e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.73958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>585186.9376447519</v>
+        <v>718579.7959350449</v>
       </c>
     </row>
     <row r="7">
@@ -47194,28 +47194,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>464.7343310763115</v>
+        <v>564.2154274009455</v>
       </c>
       <c r="AB7" t="n">
-        <v>635.8700144102944</v>
+        <v>771.9844391978824</v>
       </c>
       <c r="AC7" t="n">
-        <v>575.1834726841454</v>
+        <v>698.3073278078011</v>
       </c>
       <c r="AD7" t="n">
-        <v>464734.3310763115</v>
+        <v>564215.4274009455</v>
       </c>
       <c r="AE7" t="n">
-        <v>635870.0144102944</v>
+        <v>771984.4391978823</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.314022916719779e-06</v>
+        <v>1.941312234187715e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.40104166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>575183.4726841454</v>
+        <v>698307.3278078011</v>
       </c>
     </row>
     <row r="8">
@@ -47300,28 +47300,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>459.5081871936184</v>
+        <v>558.9892835182523</v>
       </c>
       <c r="AB8" t="n">
-        <v>628.7193737887976</v>
+        <v>764.8337985763857</v>
       </c>
       <c r="AC8" t="n">
-        <v>568.7152791675773</v>
+        <v>691.8391342912329</v>
       </c>
       <c r="AD8" t="n">
-        <v>459508.1871936184</v>
+        <v>558989.2835182522</v>
       </c>
       <c r="AE8" t="n">
-        <v>628719.3737887976</v>
+        <v>764833.7985763857</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.323501292388403e-06</v>
+        <v>1.955315404460924e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.21875</v>
       </c>
       <c r="AH8" t="n">
-        <v>568715.2791675773</v>
+        <v>691839.1342912329</v>
       </c>
     </row>
     <row r="9">
@@ -47406,28 +47406,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>453.6443567499455</v>
+        <v>553.1254530745794</v>
       </c>
       <c r="AB9" t="n">
-        <v>620.6962222818229</v>
+        <v>756.8106470694108</v>
       </c>
       <c r="AC9" t="n">
-        <v>561.4578459798644</v>
+        <v>684.58170110352</v>
       </c>
       <c r="AD9" t="n">
-        <v>453644.3567499455</v>
+        <v>553125.4530745794</v>
       </c>
       <c r="AE9" t="n">
-        <v>620696.2222818229</v>
+        <v>756810.6470694109</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.334875343190751e-06</v>
+        <v>1.972119208788775e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.01041666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>561457.8459798644</v>
+        <v>684581.70110352</v>
       </c>
     </row>
     <row r="10">
@@ -47512,28 +47512,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>440.2959285985636</v>
+        <v>547.988790199296</v>
       </c>
       <c r="AB10" t="n">
-        <v>602.4323139940142</v>
+        <v>749.7824383098758</v>
       </c>
       <c r="AC10" t="n">
-        <v>544.9370194654877</v>
+        <v>678.2242547238419</v>
       </c>
       <c r="AD10" t="n">
-        <v>440295.9285985637</v>
+        <v>547988.790199296</v>
       </c>
       <c r="AE10" t="n">
-        <v>602432.3139940142</v>
+        <v>749782.4383098758</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.341965660574033e-06</v>
+        <v>1.982594307590553e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.89322916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>544937.0194654877</v>
+        <v>678224.2547238419</v>
       </c>
     </row>
     <row r="11">
@@ -47618,28 +47618,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>437.3375813647702</v>
+        <v>545.0304429655025</v>
       </c>
       <c r="AB11" t="n">
-        <v>598.3845727956691</v>
+        <v>745.7346971115309</v>
       </c>
       <c r="AC11" t="n">
-        <v>541.2755890060722</v>
+        <v>674.5628242644265</v>
       </c>
       <c r="AD11" t="n">
-        <v>437337.5813647702</v>
+        <v>545030.4429655025</v>
       </c>
       <c r="AE11" t="n">
-        <v>598384.5727956691</v>
+        <v>745734.6971115308</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.345436961792931e-06</v>
+        <v>1.987722741378923e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23.828125</v>
       </c>
       <c r="AH11" t="n">
-        <v>541275.5890060723</v>
+        <v>674562.8242644265</v>
       </c>
     </row>
     <row r="12">
@@ -47724,28 +47724,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>433.8117303249833</v>
+        <v>541.5045919257155</v>
       </c>
       <c r="AB12" t="n">
-        <v>593.5603478534629</v>
+        <v>740.9104721693245</v>
       </c>
       <c r="AC12" t="n">
-        <v>536.9117813215081</v>
+        <v>670.1990165798622</v>
       </c>
       <c r="AD12" t="n">
-        <v>433811.7303249832</v>
+        <v>541504.5919257156</v>
       </c>
       <c r="AE12" t="n">
-        <v>593560.3478534629</v>
+        <v>740910.4721693245</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.34745573271456e-06</v>
+        <v>1.990705234787762e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>23.7890625</v>
       </c>
       <c r="AH12" t="n">
-        <v>536911.7813215081</v>
+        <v>670199.0165798622</v>
       </c>
     </row>
     <row r="13">
@@ -47830,28 +47830,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>428.8051395920214</v>
+        <v>528.3714872626758</v>
       </c>
       <c r="AB13" t="n">
-        <v>586.7101095374298</v>
+        <v>722.9411789776672</v>
       </c>
       <c r="AC13" t="n">
-        <v>530.7153201359873</v>
+        <v>653.9446875103552</v>
       </c>
       <c r="AD13" t="n">
-        <v>428805.1395920214</v>
+        <v>528371.4872626758</v>
       </c>
       <c r="AE13" t="n">
-        <v>586710.1095374299</v>
+        <v>722941.1789776671</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.353068900642992e-06</v>
+        <v>1.99899802133917e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>23.69791666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>530715.3201359874</v>
+        <v>653944.6875103551</v>
       </c>
     </row>
     <row r="14">
@@ -47936,28 +47936,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>425.8353268927024</v>
+        <v>525.4016745633568</v>
       </c>
       <c r="AB14" t="n">
-        <v>582.6466807833323</v>
+        <v>718.8777502235696</v>
       </c>
       <c r="AC14" t="n">
-        <v>527.0396993191226</v>
+        <v>650.2690666934906</v>
       </c>
       <c r="AD14" t="n">
-        <v>425835.3268927024</v>
+        <v>525401.6745633568</v>
       </c>
       <c r="AE14" t="n">
-        <v>582646.6807833323</v>
+        <v>718877.7502235696</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.356515582704309e-06</v>
+        <v>2.004090083256699e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>24</v>
+        <v>23.6328125</v>
       </c>
       <c r="AH14" t="n">
-        <v>527039.6993191226</v>
+        <v>650269.0666934906</v>
       </c>
     </row>
     <row r="15">
@@ -48042,28 +48042,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>423.6758466593828</v>
+        <v>523.2421943300373</v>
       </c>
       <c r="AB15" t="n">
-        <v>579.6919846585603</v>
+        <v>715.9230540987975</v>
       </c>
       <c r="AC15" t="n">
-        <v>524.3669952455568</v>
+        <v>647.5963626199248</v>
       </c>
       <c r="AD15" t="n">
-        <v>423675.8466593828</v>
+        <v>523242.1943300372</v>
       </c>
       <c r="AE15" t="n">
-        <v>579691.9846585602</v>
+        <v>715923.0540987975</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.359100594250298e-06</v>
+        <v>2.007909129694848e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>24</v>
+        <v>23.58072916666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>524366.9952455568</v>
+        <v>647596.3626199248</v>
       </c>
     </row>
   </sheetData>
@@ -48339,28 +48339,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>876.0714482185648</v>
+        <v>1038.03678133742</v>
       </c>
       <c r="AB2" t="n">
-        <v>1198.679604997188</v>
+        <v>1420.287719176605</v>
       </c>
       <c r="AC2" t="n">
-        <v>1084.279305853648</v>
+        <v>1284.737452644722</v>
       </c>
       <c r="AD2" t="n">
-        <v>876071.4482185649</v>
+        <v>1038036.78133742</v>
       </c>
       <c r="AE2" t="n">
-        <v>1198679.604997188</v>
+        <v>1420287.719176605</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.37284202850044e-07</v>
+        <v>1.215878176654305e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.88802083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1084279.305853648</v>
+        <v>1284737.452644723</v>
       </c>
     </row>
     <row r="3">
@@ -48445,28 +48445,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>650.7241352493252</v>
+        <v>778.4882856593325</v>
       </c>
       <c r="AB3" t="n">
-        <v>890.3494697708711</v>
+        <v>1065.162016918351</v>
       </c>
       <c r="AC3" t="n">
-        <v>805.3757659892676</v>
+        <v>963.5044489879431</v>
       </c>
       <c r="AD3" t="n">
-        <v>650724.1352493252</v>
+        <v>778488.2856593325</v>
       </c>
       <c r="AE3" t="n">
-        <v>890349.4697708711</v>
+        <v>1065162.016918351</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.053621568497327e-06</v>
+        <v>1.530036595970051e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.32291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>805375.7659892676</v>
+        <v>963504.4489879431</v>
       </c>
     </row>
     <row r="4">
@@ -48551,28 +48551,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>589.7760357759465</v>
+        <v>709.0112033452473</v>
       </c>
       <c r="AB4" t="n">
-        <v>806.9575912310146</v>
+        <v>970.1004077836729</v>
       </c>
       <c r="AC4" t="n">
-        <v>729.9426912960184</v>
+        <v>877.515386409272</v>
       </c>
       <c r="AD4" t="n">
-        <v>589776.0357759466</v>
+        <v>709011.2033452473</v>
       </c>
       <c r="AE4" t="n">
-        <v>806957.5912310146</v>
+        <v>970100.4077836729</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.137034462193548e-06</v>
+        <v>1.651166215699644e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.16145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>729942.6912960184</v>
+        <v>877515.386409272</v>
       </c>
     </row>
     <row r="5">
@@ -48657,28 +48657,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>561.2580915505156</v>
+        <v>672.0496171336814</v>
       </c>
       <c r="AB5" t="n">
-        <v>767.9380818188747</v>
+        <v>919.5279348989087</v>
       </c>
       <c r="AC5" t="n">
-        <v>694.6471490979475</v>
+        <v>831.7694793577184</v>
       </c>
       <c r="AD5" t="n">
-        <v>561258.0915505156</v>
+        <v>672049.6171336814</v>
       </c>
       <c r="AE5" t="n">
-        <v>767938.0818188747</v>
+        <v>919527.9348989087</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.180045718243392e-06</v>
+        <v>1.713625829058504e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>694647.1490979475</v>
+        <v>831769.4793577184</v>
       </c>
     </row>
     <row r="6">
@@ -48763,28 +48763,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>537.9146300065817</v>
+        <v>648.6208147351758</v>
       </c>
       <c r="AB6" t="n">
-        <v>735.9985278936235</v>
+        <v>887.4716138514599</v>
       </c>
       <c r="AC6" t="n">
-        <v>665.7558613718769</v>
+        <v>802.7725685997088</v>
       </c>
       <c r="AD6" t="n">
-        <v>537914.6300065817</v>
+        <v>648620.8147351758</v>
       </c>
       <c r="AE6" t="n">
-        <v>735998.5278936236</v>
+        <v>887471.6138514599</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.212262643624356e-06</v>
+        <v>1.760410249875565e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.48177083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>665755.8613718769</v>
+        <v>802772.5685997088</v>
       </c>
     </row>
     <row r="7">
@@ -48869,28 +48869,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>530.3801753027483</v>
+        <v>641.0863600313426</v>
       </c>
       <c r="AB7" t="n">
-        <v>725.6895545711566</v>
+        <v>877.1626405289929</v>
       </c>
       <c r="AC7" t="n">
-        <v>656.4307619945714</v>
+        <v>793.4474692224032</v>
       </c>
       <c r="AD7" t="n">
-        <v>530380.1753027483</v>
+        <v>641086.3600313426</v>
       </c>
       <c r="AE7" t="n">
-        <v>725689.5545711566</v>
+        <v>877162.640528993</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.228323658707502e-06</v>
+        <v>1.783733558338858e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.14322916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>656430.7619945714</v>
+        <v>793447.4692224032</v>
       </c>
     </row>
     <row r="8">
@@ -48975,28 +48975,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>514.8274774587331</v>
+        <v>625.6189135333477</v>
       </c>
       <c r="AB8" t="n">
-        <v>704.409667244371</v>
+        <v>855.9993978548566</v>
       </c>
       <c r="AC8" t="n">
-        <v>637.1817972477447</v>
+        <v>774.304016726289</v>
       </c>
       <c r="AD8" t="n">
-        <v>514827.4774587331</v>
+        <v>625618.9135333478</v>
       </c>
       <c r="AE8" t="n">
-        <v>704409.667244371</v>
+        <v>855999.3978548567</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.242795178944901e-06</v>
+        <v>1.804748651636654e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.85677083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>637181.7972477447</v>
+        <v>774304.0167262889</v>
       </c>
     </row>
     <row r="9">
@@ -49081,28 +49081,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>508.7510319098453</v>
+        <v>619.5424679844599</v>
       </c>
       <c r="AB9" t="n">
-        <v>696.0956063705248</v>
+        <v>847.6853369810107</v>
       </c>
       <c r="AC9" t="n">
-        <v>629.6612186748407</v>
+        <v>766.783438153385</v>
       </c>
       <c r="AD9" t="n">
-        <v>508751.0319098453</v>
+        <v>619542.4679844599</v>
       </c>
       <c r="AE9" t="n">
-        <v>696095.6063705249</v>
+        <v>847685.3369810106</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.254728252189839e-06</v>
+        <v>1.822077490864181e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.62239583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>629661.2186748408</v>
+        <v>766783.438153385</v>
       </c>
     </row>
     <row r="10">
@@ -49187,28 +49187,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>504.606513779422</v>
+        <v>615.2273576534446</v>
       </c>
       <c r="AB10" t="n">
-        <v>690.4248938212444</v>
+        <v>841.7812126568831</v>
       </c>
       <c r="AC10" t="n">
-        <v>624.5317109723685</v>
+        <v>761.4427951682617</v>
       </c>
       <c r="AD10" t="n">
-        <v>504606.513779422</v>
+        <v>615227.3576534446</v>
       </c>
       <c r="AE10" t="n">
-        <v>690424.8938212444</v>
+        <v>841781.2126568831</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.261726774271859e-06</v>
+        <v>1.832240527786886e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.47916666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>624531.7109723685</v>
+        <v>761442.7951682616</v>
       </c>
     </row>
     <row r="11">
@@ -49293,28 +49293,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>500.3841124711232</v>
+        <v>602.6466552135823</v>
       </c>
       <c r="AB11" t="n">
-        <v>684.647618072031</v>
+        <v>824.5677405572435</v>
       </c>
       <c r="AC11" t="n">
-        <v>619.3058103122028</v>
+        <v>745.8721526865518</v>
       </c>
       <c r="AD11" t="n">
-        <v>500384.1124711232</v>
+        <v>602646.6552135823</v>
       </c>
       <c r="AE11" t="n">
-        <v>684647.6180720311</v>
+        <v>824567.7405572435</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.26806102985118e-06</v>
+        <v>1.841438937476249e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>24.36197916666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>619305.8103122028</v>
+        <v>745872.1526865518</v>
       </c>
     </row>
     <row r="12">
@@ -49399,28 +49399,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>497.030639760513</v>
+        <v>599.2931825029722</v>
       </c>
       <c r="AB12" t="n">
-        <v>680.0592487645997</v>
+        <v>819.9793712498119</v>
       </c>
       <c r="AC12" t="n">
-        <v>615.1553485316557</v>
+        <v>741.7216909060047</v>
       </c>
       <c r="AD12" t="n">
-        <v>497030.639760513</v>
+        <v>599293.1825029722</v>
       </c>
       <c r="AE12" t="n">
-        <v>680059.2487645997</v>
+        <v>819979.371249812</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.2737310189278e-06</v>
+        <v>1.849672719932271e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>25</v>
+        <v>24.2578125</v>
       </c>
       <c r="AH12" t="n">
-        <v>615155.3485316557</v>
+        <v>741721.6909060047</v>
       </c>
     </row>
     <row r="13">
@@ -49505,28 +49505,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>494.0417441084429</v>
+        <v>596.304286850902</v>
       </c>
       <c r="AB13" t="n">
-        <v>675.9697098726673</v>
+        <v>815.8898323578798</v>
       </c>
       <c r="AC13" t="n">
-        <v>611.4561094918656</v>
+        <v>738.0224518662146</v>
       </c>
       <c r="AD13" t="n">
-        <v>494041.7441084429</v>
+        <v>596304.286850902</v>
       </c>
       <c r="AE13" t="n">
-        <v>675969.7098726673</v>
+        <v>815889.8323578797</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.277147246655973e-06</v>
+        <v>1.854633659989456e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>24.19270833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>611456.1094918656</v>
+        <v>738022.4518662146</v>
       </c>
     </row>
     <row r="14">
@@ -49611,28 +49611,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>491.1657481699971</v>
+        <v>593.4282909124563</v>
       </c>
       <c r="AB14" t="n">
-        <v>672.0346453496998</v>
+        <v>811.9547678349122</v>
       </c>
       <c r="AC14" t="n">
-        <v>607.8966020040724</v>
+        <v>734.4629443784214</v>
       </c>
       <c r="AD14" t="n">
-        <v>491165.7481699971</v>
+        <v>593428.2909124563</v>
       </c>
       <c r="AE14" t="n">
-        <v>672034.6453496998</v>
+        <v>811954.7678349122</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.280041550703453e-06</v>
+        <v>1.858836678649015e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>24.12760416666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>607896.6020040724</v>
+        <v>734462.9443784214</v>
       </c>
     </row>
     <row r="15">
@@ -49717,28 +49717,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>487.5770840162384</v>
+        <v>589.8396267586977</v>
       </c>
       <c r="AB15" t="n">
-        <v>667.1244767338385</v>
+        <v>807.0445992190507</v>
       </c>
       <c r="AC15" t="n">
-        <v>603.4550529894437</v>
+        <v>730.0213953637927</v>
       </c>
       <c r="AD15" t="n">
-        <v>487577.0840162383</v>
+        <v>589839.6267586977</v>
       </c>
       <c r="AE15" t="n">
-        <v>667124.4767338384</v>
+        <v>807044.5992190507</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.284667692418687e-06</v>
+        <v>1.865554618309786e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>24.04947916666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>603455.0529894438</v>
+        <v>730021.3953637928</v>
       </c>
     </row>
     <row r="16">
@@ -49823,28 +49823,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>475.644307851411</v>
+        <v>586.3504030714541</v>
       </c>
       <c r="AB16" t="n">
-        <v>650.7975259481913</v>
+        <v>802.2704894364792</v>
       </c>
       <c r="AC16" t="n">
-        <v>588.6863234717595</v>
+        <v>725.7029199183648</v>
       </c>
       <c r="AD16" t="n">
-        <v>475644.307851411</v>
+        <v>586350.4030714541</v>
       </c>
       <c r="AE16" t="n">
-        <v>650797.5259481913</v>
+        <v>802270.4894364793</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.288273710576203e-06</v>
+        <v>1.870791166147925e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>24</v>
+        <v>23.984375</v>
       </c>
       <c r="AH16" t="n">
-        <v>588686.3234717594</v>
+        <v>725702.9199183648</v>
       </c>
     </row>
     <row r="17">
@@ -49929,28 +49929,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>473.2743596929524</v>
+        <v>583.9804549129955</v>
       </c>
       <c r="AB17" t="n">
-        <v>647.5548583230546</v>
+        <v>799.0278218113426</v>
       </c>
       <c r="AC17" t="n">
-        <v>585.7531314936532</v>
+        <v>722.7697279402586</v>
       </c>
       <c r="AD17" t="n">
-        <v>473274.3596929524</v>
+        <v>583980.4549129955</v>
       </c>
       <c r="AE17" t="n">
-        <v>647554.8583230546</v>
+        <v>799027.8218113426</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.288297434379871e-06</v>
+        <v>1.870825617120544e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>24</v>
+        <v>23.97135416666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>585753.1314936532</v>
+        <v>722769.7279402586</v>
       </c>
     </row>
     <row r="18">
@@ -50035,28 +50035,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>470.9926478084256</v>
+        <v>581.6987430284687</v>
       </c>
       <c r="AB18" t="n">
-        <v>644.4329194606211</v>
+        <v>795.905882948909</v>
       </c>
       <c r="AC18" t="n">
-        <v>582.9291460945816</v>
+        <v>719.945742541187</v>
       </c>
       <c r="AD18" t="n">
-        <v>470992.6478084256</v>
+        <v>581698.7430284687</v>
       </c>
       <c r="AE18" t="n">
-        <v>644432.9194606211</v>
+        <v>795905.8829489091</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.292235585788737e-06</v>
+        <v>1.876544478575355e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>24</v>
+        <v>23.90625</v>
       </c>
       <c r="AH18" t="n">
-        <v>582929.1460945816</v>
+        <v>719945.742541187</v>
       </c>
     </row>
     <row r="19">
@@ -50141,28 +50141,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>468.0507982043924</v>
+        <v>578.7568934244355</v>
       </c>
       <c r="AB19" t="n">
-        <v>640.4077510471382</v>
+        <v>791.8807145354261</v>
       </c>
       <c r="AC19" t="n">
-        <v>579.2881341051221</v>
+        <v>716.3047305517275</v>
       </c>
       <c r="AD19" t="n">
-        <v>468050.7982043924</v>
+        <v>578756.8934244355</v>
       </c>
       <c r="AE19" t="n">
-        <v>640407.7510471381</v>
+        <v>791880.7145354261</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.291476424071365e-06</v>
+        <v>1.875442047451536e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>24</v>
+        <v>23.91927083333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>579288.1341051222</v>
+        <v>716304.7305517275</v>
       </c>
     </row>
     <row r="20">
@@ -50247,28 +50247,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>465.5743020905148</v>
+        <v>576.280397310558</v>
       </c>
       <c r="AB20" t="n">
-        <v>637.0192998088331</v>
+        <v>788.4922632971213</v>
       </c>
       <c r="AC20" t="n">
-        <v>576.2230718972799</v>
+        <v>713.2396683438851</v>
       </c>
       <c r="AD20" t="n">
-        <v>465574.3020905149</v>
+        <v>576280.397310558</v>
       </c>
       <c r="AE20" t="n">
-        <v>637019.2998088332</v>
+        <v>788492.2632971213</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.296577041859957e-06</v>
+        <v>1.882849006564694e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>24</v>
+        <v>23.828125</v>
       </c>
       <c r="AH20" t="n">
-        <v>576223.0718972798</v>
+        <v>713239.6683438851</v>
       </c>
     </row>
     <row r="21">
@@ -50353,28 +50353,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>462.8721150003939</v>
+        <v>573.5782102204372</v>
       </c>
       <c r="AB21" t="n">
-        <v>633.3220482200489</v>
+        <v>784.7950117083369</v>
       </c>
       <c r="AC21" t="n">
-        <v>572.878680811004</v>
+        <v>709.8952772576092</v>
       </c>
       <c r="AD21" t="n">
-        <v>462872.1150003939</v>
+        <v>573578.2102204371</v>
       </c>
       <c r="AE21" t="n">
-        <v>633322.0482200489</v>
+        <v>784795.0117083369</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.296102565786599e-06</v>
+        <v>1.882159987112307e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>24</v>
+        <v>23.828125</v>
       </c>
       <c r="AH21" t="n">
-        <v>572878.680811004</v>
+        <v>709895.2772576092</v>
       </c>
     </row>
     <row r="22">
@@ -50459,28 +50459,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>463.0408191162779</v>
+        <v>573.7469143363211</v>
       </c>
       <c r="AB22" t="n">
-        <v>633.5528766341016</v>
+        <v>785.0258401223896</v>
       </c>
       <c r="AC22" t="n">
-        <v>573.0874792851891</v>
+        <v>710.1040757317944</v>
       </c>
       <c r="AD22" t="n">
-        <v>463040.8191162779</v>
+        <v>573746.9143363211</v>
       </c>
       <c r="AE22" t="n">
-        <v>633552.8766341016</v>
+        <v>785025.8401223896</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.296055118179264e-06</v>
+        <v>1.882091085167068e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>24</v>
+        <v>23.828125</v>
       </c>
       <c r="AH22" t="n">
-        <v>573087.4792851892</v>
+        <v>710104.0757317945</v>
       </c>
     </row>
   </sheetData>
@@ -50756,28 +50756,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>268.7303874563088</v>
+        <v>361.1486782151316</v>
       </c>
       <c r="AB2" t="n">
-        <v>367.6887716656948</v>
+        <v>494.1395542891495</v>
       </c>
       <c r="AC2" t="n">
-        <v>332.5970713523523</v>
+        <v>446.9795687570125</v>
       </c>
       <c r="AD2" t="n">
-        <v>268730.3874563088</v>
+        <v>361148.6782151316</v>
       </c>
       <c r="AE2" t="n">
-        <v>367688.7716656948</v>
+        <v>494139.5542891495</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.612831490197405e-06</v>
+        <v>2.688494003204306e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>332597.0713523523</v>
+        <v>446979.5687570125</v>
       </c>
     </row>
   </sheetData>
@@ -51053,28 +51053,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>517.6446092084557</v>
+        <v>636.697382991122</v>
       </c>
       <c r="AB2" t="n">
-        <v>708.2641911874227</v>
+        <v>871.1574485145619</v>
       </c>
       <c r="AC2" t="n">
-        <v>640.6684508355299</v>
+        <v>788.0154043054895</v>
       </c>
       <c r="AD2" t="n">
-        <v>517644.6092084557</v>
+        <v>636697.3829911221</v>
       </c>
       <c r="AE2" t="n">
-        <v>708264.1911874227</v>
+        <v>871157.4485145619</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.173093109724562e-06</v>
+        <v>1.785338171586079e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.99739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>640668.4508355299</v>
+        <v>788015.4043054895</v>
       </c>
     </row>
     <row r="3">
@@ -51159,28 +51159,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>437.6625877007793</v>
+        <v>540.9156203863856</v>
       </c>
       <c r="AB3" t="n">
-        <v>598.8292608028643</v>
+        <v>740.1046153256228</v>
       </c>
       <c r="AC3" t="n">
-        <v>541.6778366139844</v>
+        <v>669.4700695822962</v>
       </c>
       <c r="AD3" t="n">
-        <v>437662.5877007793</v>
+        <v>540915.6203863856</v>
       </c>
       <c r="AE3" t="n">
-        <v>598829.2608028642</v>
+        <v>740104.6153256228</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.330958238883006e-06</v>
+        <v>2.025594156991288e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.55989583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>541677.8366139843</v>
+        <v>669470.0695822962</v>
       </c>
     </row>
     <row r="4">
@@ -51265,28 +51265,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>411.3639566479706</v>
+        <v>514.5316484790053</v>
       </c>
       <c r="AB4" t="n">
-        <v>562.8463135826933</v>
+        <v>704.0049009832539</v>
       </c>
       <c r="AC4" t="n">
-        <v>509.1290513741228</v>
+        <v>636.8156613104958</v>
       </c>
       <c r="AD4" t="n">
-        <v>411363.9566479706</v>
+        <v>514531.6484790053</v>
       </c>
       <c r="AE4" t="n">
-        <v>562846.3135826932</v>
+        <v>704004.900983254</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.386558535945099e-06</v>
+        <v>2.11021261725979e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.53125</v>
       </c>
       <c r="AH4" t="n">
-        <v>509129.0513741227</v>
+        <v>636815.6613104958</v>
       </c>
     </row>
     <row r="5">
@@ -51371,28 +51371,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>400.5717086222184</v>
+        <v>495.7969489859883</v>
       </c>
       <c r="AB5" t="n">
-        <v>548.0798837134789</v>
+        <v>678.3712586202992</v>
       </c>
       <c r="AC5" t="n">
-        <v>495.7719088468119</v>
+        <v>613.6284577976184</v>
       </c>
       <c r="AD5" t="n">
-        <v>400571.7086222183</v>
+        <v>495796.9489859883</v>
       </c>
       <c r="AE5" t="n">
-        <v>548079.8837134789</v>
+        <v>678371.2586202992</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.416501177126095e-06</v>
+        <v>2.155782521144988e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.0234375</v>
       </c>
       <c r="AH5" t="n">
-        <v>495771.9088468119</v>
+        <v>613628.4577976184</v>
       </c>
     </row>
     <row r="6">
@@ -51477,28 +51477,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>384.9251978989725</v>
+        <v>480.235689608763</v>
       </c>
       <c r="AB6" t="n">
-        <v>526.6716374665981</v>
+        <v>657.0796570260676</v>
       </c>
       <c r="AC6" t="n">
-        <v>476.4068355750711</v>
+        <v>594.3688967765895</v>
       </c>
       <c r="AD6" t="n">
-        <v>384925.1978989725</v>
+        <v>480235.689608763</v>
       </c>
       <c r="AE6" t="n">
-        <v>526671.6374665981</v>
+        <v>657079.6570260676</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.432987919347044e-06</v>
+        <v>2.180873803301672e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.73697916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>476406.835575071</v>
+        <v>594368.8967765896</v>
       </c>
     </row>
     <row r="7">
@@ -51583,28 +51583,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>378.1138387369887</v>
+        <v>473.4243304467792</v>
       </c>
       <c r="AB7" t="n">
-        <v>517.3520353652135</v>
+        <v>647.7600549246829</v>
       </c>
       <c r="AC7" t="n">
-        <v>467.9766832180989</v>
+        <v>585.9387444196175</v>
       </c>
       <c r="AD7" t="n">
-        <v>378113.8387369887</v>
+        <v>473424.3304467791</v>
       </c>
       <c r="AE7" t="n">
-        <v>517352.0353652135</v>
+        <v>647760.0549246829</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.445477083818699e-06</v>
+        <v>2.199881145410857e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.54166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>467976.6832180988</v>
+        <v>585938.7444196175</v>
       </c>
     </row>
     <row r="8">
@@ -51689,28 +51689,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>373.0076747836669</v>
+        <v>468.1475742928651</v>
       </c>
       <c r="AB8" t="n">
-        <v>510.3655565762236</v>
+        <v>640.5401643608461</v>
       </c>
       <c r="AC8" t="n">
-        <v>461.6569841591456</v>
+        <v>579.4079100780131</v>
       </c>
       <c r="AD8" t="n">
-        <v>373007.6747836669</v>
+        <v>468147.5742928651</v>
       </c>
       <c r="AE8" t="n">
-        <v>510365.5565762236</v>
+        <v>640540.1643608462</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.452009073605129e-06</v>
+        <v>2.209822223919844e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.42447916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>461656.9841591456</v>
+        <v>579407.9100780131</v>
       </c>
     </row>
     <row r="9">
@@ -51795,28 +51795,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>373.6536733486992</v>
+        <v>468.7935728578976</v>
       </c>
       <c r="AB9" t="n">
-        <v>511.2494403123463</v>
+        <v>641.4240480969688</v>
       </c>
       <c r="AC9" t="n">
-        <v>462.4565112720313</v>
+        <v>580.2074371908989</v>
       </c>
       <c r="AD9" t="n">
-        <v>373653.6733486992</v>
+        <v>468793.5728578976</v>
       </c>
       <c r="AE9" t="n">
-        <v>511249.4403123463</v>
+        <v>641424.0480969688</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.451773921972818e-06</v>
+        <v>2.20946434509352e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.4375</v>
       </c>
       <c r="AH9" t="n">
-        <v>462456.5112720313</v>
+        <v>580207.4371908989</v>
       </c>
     </row>
   </sheetData>
@@ -52092,28 +52092,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>631.4593393250667</v>
+        <v>761.9482855729733</v>
       </c>
       <c r="AB2" t="n">
-        <v>863.9905260844876</v>
+        <v>1042.53125910689</v>
       </c>
       <c r="AC2" t="n">
-        <v>781.5324828933026</v>
+        <v>943.0335389395394</v>
       </c>
       <c r="AD2" t="n">
-        <v>631459.3393250667</v>
+        <v>761948.2855729733</v>
       </c>
       <c r="AE2" t="n">
-        <v>863990.5260844876</v>
+        <v>1042531.25910689</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.042021424396995e-06</v>
+        <v>1.555644927881636e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.43229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>781532.4828933026</v>
+        <v>943033.5389395395</v>
       </c>
     </row>
     <row r="3">
@@ -52198,28 +52198,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>505.9616963085042</v>
+        <v>620.2034515963693</v>
       </c>
       <c r="AB3" t="n">
-        <v>692.2791143439682</v>
+        <v>848.5897239193636</v>
       </c>
       <c r="AC3" t="n">
-        <v>626.2089672908185</v>
+        <v>767.6015116716565</v>
       </c>
       <c r="AD3" t="n">
-        <v>505961.6963085042</v>
+        <v>620203.4515963693</v>
       </c>
       <c r="AE3" t="n">
-        <v>692279.1143439682</v>
+        <v>848589.7239193636</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.223217386059153e-06</v>
+        <v>1.826154316760555e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.78385416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>626208.9672908185</v>
+        <v>767601.5116716565</v>
       </c>
     </row>
     <row r="4">
@@ -52304,28 +52304,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>472.7301716320421</v>
+        <v>578.7204544208555</v>
       </c>
       <c r="AB4" t="n">
-        <v>646.8102762102344</v>
+        <v>791.8308570831525</v>
       </c>
       <c r="AC4" t="n">
-        <v>585.0796112526531</v>
+        <v>716.2596314247235</v>
       </c>
       <c r="AD4" t="n">
-        <v>472730.1716320422</v>
+        <v>578720.4544208555</v>
       </c>
       <c r="AE4" t="n">
-        <v>646810.2762102344</v>
+        <v>791830.8570831525</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.289552767275745e-06</v>
+        <v>1.925187116770787e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.40364583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>585079.6112526531</v>
+        <v>716259.6314247234</v>
       </c>
     </row>
     <row r="5">
@@ -52410,28 +52410,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>451.3907307319298</v>
+        <v>557.4662648667636</v>
       </c>
       <c r="AB5" t="n">
-        <v>617.6127117410109</v>
+        <v>762.7499372665782</v>
       </c>
       <c r="AC5" t="n">
-        <v>558.6686213573331</v>
+        <v>689.9541537801158</v>
       </c>
       <c r="AD5" t="n">
-        <v>451390.7307319298</v>
+        <v>557466.2648667636</v>
       </c>
       <c r="AE5" t="n">
-        <v>617612.7117410109</v>
+        <v>762749.9372665782</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.323915350037165e-06</v>
+        <v>1.976487384049505e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.73958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>558668.6213573331</v>
+        <v>689954.1537801158</v>
       </c>
     </row>
     <row r="6">
@@ -52516,28 +52516,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>441.581720620359</v>
+        <v>539.4911231107127</v>
       </c>
       <c r="AB6" t="n">
-        <v>604.1915913633751</v>
+        <v>738.1555553086627</v>
       </c>
       <c r="AC6" t="n">
-        <v>546.5283938718782</v>
+        <v>667.7070251178318</v>
       </c>
       <c r="AD6" t="n">
-        <v>441581.7206203589</v>
+        <v>539491.1231107127</v>
       </c>
       <c r="AE6" t="n">
-        <v>604191.5913633751</v>
+        <v>738155.5553086627</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.348366616833724e-06</v>
+        <v>2.012990941732458e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.296875</v>
       </c>
       <c r="AH6" t="n">
-        <v>546528.3938718782</v>
+        <v>667707.0251178318</v>
       </c>
     </row>
     <row r="7">
@@ -52622,28 +52622,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>435.6207514818603</v>
+        <v>533.530153972214</v>
       </c>
       <c r="AB7" t="n">
-        <v>596.0355304086829</v>
+        <v>729.9994943539705</v>
       </c>
       <c r="AC7" t="n">
-        <v>539.1507359275984</v>
+        <v>660.3293671735521</v>
       </c>
       <c r="AD7" t="n">
-        <v>435620.7514818603</v>
+        <v>533530.153972214</v>
       </c>
       <c r="AE7" t="n">
-        <v>596035.5304086829</v>
+        <v>729999.4943539705</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.360340693989241e-06</v>
+        <v>2.030867169568965e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.07552083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>539150.7359275983</v>
+        <v>660329.367173552</v>
       </c>
     </row>
     <row r="8">
@@ -52728,28 +52728,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>421.5993340444612</v>
+        <v>527.5895273247233</v>
       </c>
       <c r="AB8" t="n">
-        <v>576.8508084895533</v>
+        <v>721.8712668929229</v>
       </c>
       <c r="AC8" t="n">
-        <v>521.7969769425042</v>
+        <v>652.9768863333479</v>
       </c>
       <c r="AD8" t="n">
-        <v>421599.3340444611</v>
+        <v>527589.5273247233</v>
       </c>
       <c r="AE8" t="n">
-        <v>576850.8084895533</v>
+        <v>721871.2668929229</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.370729966815351e-06</v>
+        <v>2.046377426074171e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.89322916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>521796.9769425042</v>
+        <v>652976.8863333479</v>
       </c>
     </row>
     <row r="9">
@@ -52834,28 +52834,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>416.6668596856977</v>
+        <v>522.6570529659599</v>
       </c>
       <c r="AB9" t="n">
-        <v>570.1019794664822</v>
+        <v>715.122437869852</v>
       </c>
       <c r="AC9" t="n">
-        <v>515.6922466893541</v>
+        <v>646.8721560801978</v>
       </c>
       <c r="AD9" t="n">
-        <v>416666.8596856977</v>
+        <v>522657.0529659599</v>
       </c>
       <c r="AE9" t="n">
-        <v>570101.9794664823</v>
+        <v>715122.4378698519</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.377698074739885e-06</v>
+        <v>2.056780188911802e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.77604166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>515692.2466893541</v>
+        <v>646872.1560801978</v>
       </c>
     </row>
     <row r="10">
@@ -52940,28 +52940,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>411.8291804536375</v>
+        <v>509.8238342900118</v>
       </c>
       <c r="AB10" t="n">
-        <v>563.4828533178326</v>
+        <v>697.5634619157695</v>
       </c>
       <c r="AC10" t="n">
-        <v>509.7048406503296</v>
+        <v>630.9889841469954</v>
       </c>
       <c r="AD10" t="n">
-        <v>411829.1804536376</v>
+        <v>509823.8342900118</v>
       </c>
       <c r="AE10" t="n">
-        <v>563482.8533178326</v>
+        <v>697563.4619157695</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.384917738907181e-06</v>
+        <v>2.067558502754403e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.64583333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>509704.8406503296</v>
+        <v>630988.9841469955</v>
       </c>
     </row>
     <row r="11">
@@ -53046,28 +53046,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>406.9928914056771</v>
+        <v>504.9875452420513</v>
       </c>
       <c r="AB11" t="n">
-        <v>556.8656292803986</v>
+        <v>690.9462378783356</v>
       </c>
       <c r="AC11" t="n">
-        <v>503.7191551876961</v>
+        <v>625.0032986843619</v>
       </c>
       <c r="AD11" t="n">
-        <v>406992.8914056771</v>
+        <v>504987.5452420514</v>
       </c>
       <c r="AE11" t="n">
-        <v>556865.6292803986</v>
+        <v>690946.2378783356</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.387609390704745e-06</v>
+        <v>2.071576898507567e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23.60677083333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>503719.1551876961</v>
+        <v>625003.2986843619</v>
       </c>
     </row>
     <row r="12">
@@ -53152,28 +53152,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>404.683439880112</v>
+        <v>502.6780937164861</v>
       </c>
       <c r="AB12" t="n">
-        <v>553.7057358173098</v>
+        <v>687.7863444152467</v>
       </c>
       <c r="AC12" t="n">
-        <v>500.8608375217861</v>
+        <v>622.144981018452</v>
       </c>
       <c r="AD12" t="n">
-        <v>404683.439880112</v>
+        <v>502678.0937164861</v>
       </c>
       <c r="AE12" t="n">
-        <v>553705.7358173098</v>
+        <v>687786.3444152467</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.390653221242177e-06</v>
+        <v>2.076121065667688e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>23.5546875</v>
       </c>
       <c r="AH12" t="n">
-        <v>500860.8375217861</v>
+        <v>622144.981018452</v>
       </c>
     </row>
     <row r="13">
@@ -53258,28 +53258,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>405.2896645620032</v>
+        <v>503.2843183983774</v>
       </c>
       <c r="AB13" t="n">
-        <v>554.5351991718189</v>
+        <v>688.6158077697559</v>
       </c>
       <c r="AC13" t="n">
-        <v>501.6111380578999</v>
+        <v>622.8952815545658</v>
       </c>
       <c r="AD13" t="n">
-        <v>405289.6645620032</v>
+        <v>503284.3183983775</v>
       </c>
       <c r="AE13" t="n">
-        <v>554535.1991718189</v>
+        <v>688615.8077697558</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.391483356843295e-06</v>
+        <v>2.077360383984084e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>23.54166666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>501611.1380578999</v>
+        <v>622895.2815545659</v>
       </c>
     </row>
   </sheetData>
